--- a/other/配置表/d-掉落器内容配置表.xlsx
+++ b/other/配置表/d-掉落器内容配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27600" windowHeight="11625"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,25 +15,170 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>zsbin</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Id
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+物品Id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最小数目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最大数目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+权重，单物品最大权重为10000
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+掉落次数
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
-    <t>掉落组别</t>
+    <t>id</t>
   </si>
   <si>
-    <t>掉落物品id</t>
+    <t>itemID</t>
   </si>
   <si>
-    <t>最小数量</t>
+    <t>minCount</t>
   </si>
   <si>
-    <t>最大数量</t>
+    <t>maxCount</t>
   </si>
   <si>
-    <t>权重</t>
+    <t>weight</t>
   </si>
   <si>
-    <t>掉落次数</t>
+    <t>dropCount</t>
   </si>
 </sst>
 </file>
@@ -42,9 +187,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,7 +208,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,17 +258,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,100 +338,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,187 +353,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,17 +547,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,8 +570,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,23 +594,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,11 +615,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,133 +664,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1152,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1479,6 +1624,7 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/other/配置表/d-掉落器内容配置表.xlsx
+++ b/other/配置表/d-掉落器内容配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -200,6 +200,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -208,9 +238,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,6 +264,45 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,101 +315,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,6 +329,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -353,97 +353,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,43 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,37 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,35 +544,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -591,15 +562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -610,6 +572,39 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -630,17 +625,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,133 +664,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="F23">
         <v>1</v>

--- a/other/配置表/d-掉落器内容配置表.xlsx
+++ b/other/配置表/d-掉落器内容配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -197,6 +197,57 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,6 +259,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -217,28 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,98 +343,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,31 +353,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,151 +455,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,21 +562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -588,9 +573,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,32 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -644,6 +620,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -652,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,19 +664,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,112 +685,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="F23">
         <v>1</v>

--- a/other/配置表/d-掉落器内容配置表.xlsx
+++ b/other/配置表/d-掉落器内容配置表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\配置表1111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBF14E1-BEC5-4A99-80A6-78C1902ABC9B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5878F928-138F-4816-93C0-8FB6736ED74C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -25,6 +25,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zsbin</author>
+    <author>48203541@qq.com</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -176,12 +177,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="C474" authorId="1" shapeId="0" xr:uid="{42119F58-243A-4C55-A032-59DEDE519BAB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>48203541@qq.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+第七关掉落特殊神装</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -333,9 +360,6 @@
     <t>准备</t>
   </si>
   <si>
-    <t>无目标治疗</t>
-  </si>
-  <si>
     <t>连环斩</t>
   </si>
   <si>
@@ -354,96 +378,6 @@
     <t>渴血</t>
   </si>
   <si>
-    <t>绿色武器</t>
-  </si>
-  <si>
-    <t>绿色护甲</t>
-  </si>
-  <si>
-    <t>绿色靴子</t>
-  </si>
-  <si>
-    <t>绿色戒指</t>
-  </si>
-  <si>
-    <t>绿色头盔</t>
-  </si>
-  <si>
-    <t>绿色项链</t>
-  </si>
-  <si>
-    <t>紫色武器</t>
-  </si>
-  <si>
-    <t>紫色护甲</t>
-  </si>
-  <si>
-    <t>紫色靴子</t>
-  </si>
-  <si>
-    <t>紫色戒指</t>
-  </si>
-  <si>
-    <t>紫色头盔</t>
-  </si>
-  <si>
-    <t>紫色项链</t>
-  </si>
-  <si>
-    <t>蓝色武器</t>
-  </si>
-  <si>
-    <t>蓝色护甲</t>
-  </si>
-  <si>
-    <t>蓝色靴子</t>
-  </si>
-  <si>
-    <t>蓝色戒指</t>
-  </si>
-  <si>
-    <t>蓝色头盔</t>
-  </si>
-  <si>
-    <t>蓝色项链</t>
-  </si>
-  <si>
-    <t>橙色武器</t>
-  </si>
-  <si>
-    <t>橙色护甲</t>
-  </si>
-  <si>
-    <t>橙色靴子</t>
-  </si>
-  <si>
-    <t>橙色戒指</t>
-  </si>
-  <si>
-    <t>橙色头盔</t>
-  </si>
-  <si>
-    <t>橙色项链</t>
-  </si>
-  <si>
-    <t>绿色纯粹之剑</t>
-  </si>
-  <si>
-    <t>绿色纯粹项链</t>
-  </si>
-  <si>
-    <t>绿色纯粹戒指</t>
-  </si>
-  <si>
-    <t>绿色纯粹靴子</t>
-  </si>
-  <si>
-    <t>绿色纯粹护甲</t>
-  </si>
-  <si>
-    <t>绿色纯粹头盔</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
 </sst>
@@ -451,7 +385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +420,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -524,7 +473,18 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -824,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q310"/>
+  <dimension ref="A1:Q503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="A474" sqref="A474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -844,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1416,7 +1376,7 @@
         <v>4000002</v>
       </c>
       <c r="B26">
-        <v>221001</v>
+        <v>221025</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1439,7 +1399,7 @@
         <v>4000002</v>
       </c>
       <c r="B27">
-        <v>222002</v>
+        <v>222026</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1462,7 +1422,7 @@
         <v>4000002</v>
       </c>
       <c r="B28">
-        <v>223003</v>
+        <v>223027</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1485,7 +1445,7 @@
         <v>4000002</v>
       </c>
       <c r="B29">
-        <v>224004</v>
+        <v>224028</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1508,7 +1468,7 @@
         <v>4000002</v>
       </c>
       <c r="B30">
-        <v>221005</v>
+        <v>221029</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -1531,7 +1491,7 @@
         <v>4000002</v>
       </c>
       <c r="B31">
-        <v>222006</v>
+        <v>222030</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -1554,7 +1514,7 @@
         <v>4000002</v>
       </c>
       <c r="B32">
-        <v>223007</v>
+        <v>223031</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -1577,7 +1537,7 @@
         <v>4000002</v>
       </c>
       <c r="B33">
-        <v>224008</v>
+        <v>224032</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -1600,7 +1560,7 @@
         <v>4000002</v>
       </c>
       <c r="B34">
-        <v>221009</v>
+        <v>221033</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1623,7 +1583,7 @@
         <v>4000002</v>
       </c>
       <c r="B35">
-        <v>222010</v>
+        <v>222034</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -1646,7 +1606,7 @@
         <v>4000002</v>
       </c>
       <c r="B36">
-        <v>223011</v>
+        <v>223035</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -1669,7 +1629,7 @@
         <v>4000002</v>
       </c>
       <c r="B37">
-        <v>224012</v>
+        <v>224036</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -1692,7 +1652,7 @@
         <v>4000002</v>
       </c>
       <c r="B38">
-        <v>221013</v>
+        <v>221037</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
@@ -1715,7 +1675,7 @@
         <v>4000002</v>
       </c>
       <c r="B39">
-        <v>222014</v>
+        <v>222038</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
@@ -1738,7 +1698,7 @@
         <v>4000002</v>
       </c>
       <c r="B40">
-        <v>223015</v>
+        <v>223039</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
@@ -1761,7 +1721,7 @@
         <v>4000002</v>
       </c>
       <c r="B41">
-        <v>224016</v>
+        <v>224040</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
@@ -1784,7 +1744,7 @@
         <v>4000002</v>
       </c>
       <c r="B42">
-        <v>221017</v>
+        <v>221041</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1807,7 +1767,7 @@
         <v>4000002</v>
       </c>
       <c r="B43">
-        <v>222018</v>
+        <v>222042</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -1830,7 +1790,7 @@
         <v>4000002</v>
       </c>
       <c r="B44">
-        <v>223019</v>
+        <v>223043</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -1853,7 +1813,7 @@
         <v>4000002</v>
       </c>
       <c r="B45">
-        <v>224020</v>
+        <v>224044</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
@@ -1876,7 +1836,7 @@
         <v>4000002</v>
       </c>
       <c r="B46">
-        <v>221021</v>
+        <v>221045</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -1899,7 +1859,7 @@
         <v>4000002</v>
       </c>
       <c r="B47">
-        <v>222022</v>
+        <v>222046</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
@@ -1922,7 +1882,7 @@
         <v>4000002</v>
       </c>
       <c r="B48">
-        <v>223023</v>
+        <v>223047</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -1945,7 +1905,7 @@
         <v>4000002</v>
       </c>
       <c r="B49">
-        <v>224024</v>
+        <v>224048</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
@@ -1968,7 +1928,7 @@
         <v>4000003</v>
       </c>
       <c r="B50">
-        <v>231001</v>
+        <v>231049</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -1991,7 +1951,7 @@
         <v>4000003</v>
       </c>
       <c r="B51">
-        <v>232002</v>
+        <v>232050</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -2014,7 +1974,7 @@
         <v>4000003</v>
       </c>
       <c r="B52">
-        <v>233003</v>
+        <v>233051</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -2037,7 +1997,7 @@
         <v>4000003</v>
       </c>
       <c r="B53">
-        <v>234004</v>
+        <v>234052</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
@@ -2060,7 +2020,7 @@
         <v>4000003</v>
       </c>
       <c r="B54">
-        <v>231005</v>
+        <v>231053</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
@@ -2083,7 +2043,7 @@
         <v>4000003</v>
       </c>
       <c r="B55">
-        <v>232006</v>
+        <v>232054</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
@@ -2106,7 +2066,7 @@
         <v>4000003</v>
       </c>
       <c r="B56">
-        <v>233007</v>
+        <v>233055</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
@@ -2129,7 +2089,7 @@
         <v>4000003</v>
       </c>
       <c r="B57">
-        <v>234008</v>
+        <v>234056</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
@@ -2152,7 +2112,7 @@
         <v>4000003</v>
       </c>
       <c r="B58">
-        <v>231009</v>
+        <v>231057</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
@@ -2175,7 +2135,7 @@
         <v>4000003</v>
       </c>
       <c r="B59">
-        <v>232010</v>
+        <v>232058</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
@@ -2199,7 +2159,7 @@
         <v>4000003</v>
       </c>
       <c r="B60">
-        <v>233011</v>
+        <v>233059</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
@@ -2223,7 +2183,7 @@
         <v>4000003</v>
       </c>
       <c r="B61">
-        <v>234012</v>
+        <v>234060</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
@@ -2247,7 +2207,7 @@
         <v>4000003</v>
       </c>
       <c r="B62">
-        <v>231013</v>
+        <v>231061</v>
       </c>
       <c r="C62" t="s">
         <v>21</v>
@@ -2271,7 +2231,7 @@
         <v>4000003</v>
       </c>
       <c r="B63">
-        <v>232014</v>
+        <v>232062</v>
       </c>
       <c r="C63" t="s">
         <v>21</v>
@@ -2295,7 +2255,7 @@
         <v>4000003</v>
       </c>
       <c r="B64">
-        <v>233015</v>
+        <v>233063</v>
       </c>
       <c r="C64" t="s">
         <v>21</v>
@@ -2319,7 +2279,7 @@
         <v>4000003</v>
       </c>
       <c r="B65">
-        <v>234016</v>
+        <v>234064</v>
       </c>
       <c r="C65" t="s">
         <v>21</v>
@@ -2343,7 +2303,7 @@
         <v>4000003</v>
       </c>
       <c r="B66">
-        <v>231017</v>
+        <v>231065</v>
       </c>
       <c r="C66" t="s">
         <v>22</v>
@@ -2367,7 +2327,7 @@
         <v>4000003</v>
       </c>
       <c r="B67">
-        <v>232018</v>
+        <v>232066</v>
       </c>
       <c r="C67" t="s">
         <v>22</v>
@@ -2391,7 +2351,7 @@
         <v>4000003</v>
       </c>
       <c r="B68">
-        <v>233019</v>
+        <v>233067</v>
       </c>
       <c r="C68" t="s">
         <v>22</v>
@@ -2415,7 +2375,7 @@
         <v>4000003</v>
       </c>
       <c r="B69">
-        <v>234020</v>
+        <v>234068</v>
       </c>
       <c r="C69" t="s">
         <v>22</v>
@@ -2439,7 +2399,7 @@
         <v>4000003</v>
       </c>
       <c r="B70">
-        <v>231021</v>
+        <v>231069</v>
       </c>
       <c r="C70" t="s">
         <v>23</v>
@@ -2463,7 +2423,7 @@
         <v>4000003</v>
       </c>
       <c r="B71">
-        <v>232022</v>
+        <v>232070</v>
       </c>
       <c r="C71" t="s">
         <v>23</v>
@@ -2487,7 +2447,7 @@
         <v>4000003</v>
       </c>
       <c r="B72">
-        <v>233023</v>
+        <v>233071</v>
       </c>
       <c r="C72" t="s">
         <v>23</v>
@@ -2511,7 +2471,7 @@
         <v>4000003</v>
       </c>
       <c r="B73">
-        <v>234024</v>
+        <v>234072</v>
       </c>
       <c r="C73" t="s">
         <v>23</v>
@@ -2535,7 +2495,7 @@
         <v>4000004</v>
       </c>
       <c r="B74">
-        <v>261001</v>
+        <v>261073</v>
       </c>
       <c r="C74" t="s">
         <v>24</v>
@@ -2559,7 +2519,7 @@
         <v>4000004</v>
       </c>
       <c r="B75">
-        <v>262002</v>
+        <v>262074</v>
       </c>
       <c r="C75" t="s">
         <v>24</v>
@@ -2583,7 +2543,7 @@
         <v>4000004</v>
       </c>
       <c r="B76">
-        <v>263003</v>
+        <v>263075</v>
       </c>
       <c r="C76" t="s">
         <v>24</v>
@@ -2607,7 +2567,7 @@
         <v>4000004</v>
       </c>
       <c r="B77">
-        <v>264004</v>
+        <v>264076</v>
       </c>
       <c r="C77" t="s">
         <v>24</v>
@@ -2631,7 +2591,7 @@
         <v>4000004</v>
       </c>
       <c r="B78">
-        <v>261005</v>
+        <v>261077</v>
       </c>
       <c r="C78" t="s">
         <v>25</v>
@@ -2655,7 +2615,7 @@
         <v>4000004</v>
       </c>
       <c r="B79">
-        <v>262006</v>
+        <v>262078</v>
       </c>
       <c r="C79" t="s">
         <v>25</v>
@@ -2679,7 +2639,7 @@
         <v>4000004</v>
       </c>
       <c r="B80">
-        <v>263007</v>
+        <v>263079</v>
       </c>
       <c r="C80" t="s">
         <v>25</v>
@@ -2703,7 +2663,7 @@
         <v>4000004</v>
       </c>
       <c r="B81">
-        <v>264008</v>
+        <v>264080</v>
       </c>
       <c r="C81" t="s">
         <v>25</v>
@@ -2727,7 +2687,7 @@
         <v>4000004</v>
       </c>
       <c r="B82">
-        <v>261009</v>
+        <v>261081</v>
       </c>
       <c r="C82" t="s">
         <v>26</v>
@@ -2751,7 +2711,7 @@
         <v>4000004</v>
       </c>
       <c r="B83">
-        <v>262010</v>
+        <v>262082</v>
       </c>
       <c r="C83" t="s">
         <v>26</v>
@@ -2775,7 +2735,7 @@
         <v>4000004</v>
       </c>
       <c r="B84">
-        <v>263011</v>
+        <v>263083</v>
       </c>
       <c r="C84" t="s">
         <v>26</v>
@@ -2799,7 +2759,7 @@
         <v>4000004</v>
       </c>
       <c r="B85">
-        <v>264012</v>
+        <v>264084</v>
       </c>
       <c r="C85" t="s">
         <v>26</v>
@@ -2823,7 +2783,7 @@
         <v>4000004</v>
       </c>
       <c r="B86">
-        <v>261013</v>
+        <v>261085</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -2847,7 +2807,7 @@
         <v>4000004</v>
       </c>
       <c r="B87">
-        <v>262014</v>
+        <v>262086</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -2871,7 +2831,7 @@
         <v>4000004</v>
       </c>
       <c r="B88">
-        <v>263015</v>
+        <v>263087</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -2895,7 +2855,7 @@
         <v>4000004</v>
       </c>
       <c r="B89">
-        <v>264016</v>
+        <v>264088</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -2919,7 +2879,7 @@
         <v>4000004</v>
       </c>
       <c r="B90">
-        <v>261017</v>
+        <v>261089</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -2943,7 +2903,7 @@
         <v>4000004</v>
       </c>
       <c r="B91">
-        <v>262018</v>
+        <v>262090</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -2967,7 +2927,7 @@
         <v>4000004</v>
       </c>
       <c r="B92">
-        <v>263019</v>
+        <v>263091</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -2991,7 +2951,7 @@
         <v>4000004</v>
       </c>
       <c r="B93">
-        <v>264020</v>
+        <v>264092</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -3015,7 +2975,7 @@
         <v>4000004</v>
       </c>
       <c r="B94">
-        <v>261021</v>
+        <v>261093</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
@@ -3039,7 +2999,7 @@
         <v>4000004</v>
       </c>
       <c r="B95">
-        <v>262022</v>
+        <v>262094</v>
       </c>
       <c r="C95" t="s">
         <v>29</v>
@@ -3063,7 +3023,7 @@
         <v>4000004</v>
       </c>
       <c r="B96">
-        <v>263023</v>
+        <v>263095</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -3087,7 +3047,7 @@
         <v>4000004</v>
       </c>
       <c r="B97">
-        <v>264024</v>
+        <v>264096</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -3111,7 +3071,7 @@
         <v>4000005</v>
       </c>
       <c r="B98">
-        <v>211001</v>
+        <v>211097</v>
       </c>
       <c r="C98" t="s">
         <v>30</v>
@@ -3135,7 +3095,7 @@
         <v>4000005</v>
       </c>
       <c r="B99">
-        <v>212002</v>
+        <v>212098</v>
       </c>
       <c r="C99" t="s">
         <v>30</v>
@@ -3159,7 +3119,7 @@
         <v>4000005</v>
       </c>
       <c r="B100">
-        <v>213003</v>
+        <v>213099</v>
       </c>
       <c r="C100" t="s">
         <v>30</v>
@@ -3183,7 +3143,7 @@
         <v>4000005</v>
       </c>
       <c r="B101">
-        <v>214004</v>
+        <v>214100</v>
       </c>
       <c r="C101" t="s">
         <v>30</v>
@@ -3207,7 +3167,7 @@
         <v>4000005</v>
       </c>
       <c r="B102">
-        <v>211005</v>
+        <v>211101</v>
       </c>
       <c r="C102" t="s">
         <v>31</v>
@@ -3231,7 +3191,7 @@
         <v>4000005</v>
       </c>
       <c r="B103">
-        <v>212006</v>
+        <v>212102</v>
       </c>
       <c r="C103" t="s">
         <v>31</v>
@@ -3255,7 +3215,7 @@
         <v>4000005</v>
       </c>
       <c r="B104">
-        <v>213007</v>
+        <v>213103</v>
       </c>
       <c r="C104" t="s">
         <v>31</v>
@@ -3279,7 +3239,7 @@
         <v>4000005</v>
       </c>
       <c r="B105">
-        <v>214008</v>
+        <v>214104</v>
       </c>
       <c r="C105" t="s">
         <v>31</v>
@@ -3303,7 +3263,7 @@
         <v>4000005</v>
       </c>
       <c r="B106">
-        <v>211009</v>
+        <v>211105</v>
       </c>
       <c r="C106" t="s">
         <v>32</v>
@@ -3327,7 +3287,7 @@
         <v>4000005</v>
       </c>
       <c r="B107">
-        <v>212010</v>
+        <v>212106</v>
       </c>
       <c r="C107" t="s">
         <v>32</v>
@@ -3351,7 +3311,7 @@
         <v>4000005</v>
       </c>
       <c r="B108">
-        <v>213011</v>
+        <v>213107</v>
       </c>
       <c r="C108" t="s">
         <v>32</v>
@@ -3375,7 +3335,7 @@
         <v>4000005</v>
       </c>
       <c r="B109">
-        <v>214012</v>
+        <v>214108</v>
       </c>
       <c r="C109" t="s">
         <v>32</v>
@@ -3399,7 +3359,7 @@
         <v>4000005</v>
       </c>
       <c r="B110">
-        <v>211013</v>
+        <v>211109</v>
       </c>
       <c r="C110" t="s">
         <v>33</v>
@@ -3423,7 +3383,7 @@
         <v>4000005</v>
       </c>
       <c r="B111">
-        <v>212014</v>
+        <v>212110</v>
       </c>
       <c r="C111" t="s">
         <v>33</v>
@@ -3447,7 +3407,7 @@
         <v>4000005</v>
       </c>
       <c r="B112">
-        <v>213015</v>
+        <v>213111</v>
       </c>
       <c r="C112" t="s">
         <v>33</v>
@@ -3471,7 +3431,7 @@
         <v>4000005</v>
       </c>
       <c r="B113">
-        <v>214016</v>
+        <v>214112</v>
       </c>
       <c r="C113" t="s">
         <v>33</v>
@@ -3495,7 +3455,7 @@
         <v>4000005</v>
       </c>
       <c r="B114">
-        <v>211017</v>
+        <v>211113</v>
       </c>
       <c r="C114" t="s">
         <v>34</v>
@@ -3519,7 +3479,7 @@
         <v>4000005</v>
       </c>
       <c r="B115">
-        <v>212018</v>
+        <v>212114</v>
       </c>
       <c r="C115" t="s">
         <v>34</v>
@@ -3543,7 +3503,7 @@
         <v>4000005</v>
       </c>
       <c r="B116">
-        <v>213019</v>
+        <v>213115</v>
       </c>
       <c r="C116" t="s">
         <v>34</v>
@@ -3567,7 +3527,7 @@
         <v>4000005</v>
       </c>
       <c r="B117">
-        <v>214020</v>
+        <v>214116</v>
       </c>
       <c r="C117" t="s">
         <v>34</v>
@@ -3591,7 +3551,7 @@
         <v>4000005</v>
       </c>
       <c r="B118">
-        <v>211021</v>
+        <v>211117</v>
       </c>
       <c r="C118" t="s">
         <v>35</v>
@@ -3615,7 +3575,7 @@
         <v>4000005</v>
       </c>
       <c r="B119">
-        <v>212022</v>
+        <v>212118</v>
       </c>
       <c r="C119" t="s">
         <v>35</v>
@@ -3639,7 +3599,7 @@
         <v>4000005</v>
       </c>
       <c r="B120">
-        <v>213023</v>
+        <v>213119</v>
       </c>
       <c r="C120" t="s">
         <v>35</v>
@@ -3663,7 +3623,7 @@
         <v>4000005</v>
       </c>
       <c r="B121">
-        <v>214024</v>
+        <v>214120</v>
       </c>
       <c r="C121" t="s">
         <v>35</v>
@@ -3687,7 +3647,7 @@
         <v>4000006</v>
       </c>
       <c r="B122">
-        <v>251001</v>
+        <v>251121</v>
       </c>
       <c r="C122" t="s">
         <v>36</v>
@@ -3711,7 +3671,7 @@
         <v>4000006</v>
       </c>
       <c r="B123">
-        <v>252002</v>
+        <v>252122</v>
       </c>
       <c r="C123" t="s">
         <v>36</v>
@@ -3735,7 +3695,7 @@
         <v>4000006</v>
       </c>
       <c r="B124">
-        <v>253003</v>
+        <v>253123</v>
       </c>
       <c r="C124" t="s">
         <v>36</v>
@@ -3759,7 +3719,7 @@
         <v>4000006</v>
       </c>
       <c r="B125">
-        <v>254004</v>
+        <v>254124</v>
       </c>
       <c r="C125" t="s">
         <v>36</v>
@@ -3783,7 +3743,7 @@
         <v>4000006</v>
       </c>
       <c r="B126">
-        <v>251005</v>
+        <v>251125</v>
       </c>
       <c r="C126" t="s">
         <v>37</v>
@@ -3807,7 +3767,7 @@
         <v>4000006</v>
       </c>
       <c r="B127">
-        <v>252006</v>
+        <v>252126</v>
       </c>
       <c r="C127" t="s">
         <v>37</v>
@@ -3831,7 +3791,7 @@
         <v>4000006</v>
       </c>
       <c r="B128">
-        <v>253007</v>
+        <v>253127</v>
       </c>
       <c r="C128" t="s">
         <v>37</v>
@@ -3855,7 +3815,7 @@
         <v>4000006</v>
       </c>
       <c r="B129">
-        <v>254008</v>
+        <v>254128</v>
       </c>
       <c r="C129" t="s">
         <v>37</v>
@@ -3879,7 +3839,7 @@
         <v>4000006</v>
       </c>
       <c r="B130">
-        <v>251009</v>
+        <v>251129</v>
       </c>
       <c r="C130" t="s">
         <v>38</v>
@@ -3903,7 +3863,7 @@
         <v>4000006</v>
       </c>
       <c r="B131">
-        <v>252010</v>
+        <v>252130</v>
       </c>
       <c r="C131" t="s">
         <v>38</v>
@@ -3927,7 +3887,7 @@
         <v>4000006</v>
       </c>
       <c r="B132">
-        <v>253011</v>
+        <v>253131</v>
       </c>
       <c r="C132" t="s">
         <v>38</v>
@@ -3951,7 +3911,7 @@
         <v>4000006</v>
       </c>
       <c r="B133">
-        <v>254012</v>
+        <v>254132</v>
       </c>
       <c r="C133" t="s">
         <v>38</v>
@@ -3975,7 +3935,7 @@
         <v>4000006</v>
       </c>
       <c r="B134">
-        <v>251013</v>
+        <v>251133</v>
       </c>
       <c r="C134" t="s">
         <v>39</v>
@@ -3999,7 +3959,7 @@
         <v>4000006</v>
       </c>
       <c r="B135">
-        <v>252014</v>
+        <v>252134</v>
       </c>
       <c r="C135" t="s">
         <v>39</v>
@@ -4023,7 +3983,7 @@
         <v>4000006</v>
       </c>
       <c r="B136">
-        <v>253015</v>
+        <v>253135</v>
       </c>
       <c r="C136" t="s">
         <v>39</v>
@@ -4047,7 +4007,7 @@
         <v>4000006</v>
       </c>
       <c r="B137">
-        <v>254016</v>
+        <v>254136</v>
       </c>
       <c r="C137" t="s">
         <v>39</v>
@@ -4071,7 +4031,7 @@
         <v>4000006</v>
       </c>
       <c r="B138">
-        <v>251017</v>
+        <v>251137</v>
       </c>
       <c r="C138" t="s">
         <v>40</v>
@@ -4095,7 +4055,7 @@
         <v>4000006</v>
       </c>
       <c r="B139">
-        <v>252018</v>
+        <v>252138</v>
       </c>
       <c r="C139" t="s">
         <v>40</v>
@@ -4119,7 +4079,7 @@
         <v>4000006</v>
       </c>
       <c r="B140">
-        <v>253019</v>
+        <v>253139</v>
       </c>
       <c r="C140" t="s">
         <v>40</v>
@@ -4143,7 +4103,7 @@
         <v>4000006</v>
       </c>
       <c r="B141">
-        <v>254020</v>
+        <v>254140</v>
       </c>
       <c r="C141" t="s">
         <v>40</v>
@@ -4167,7 +4127,7 @@
         <v>4000006</v>
       </c>
       <c r="B142">
-        <v>251021</v>
+        <v>251141</v>
       </c>
       <c r="C142" t="s">
         <v>41</v>
@@ -4191,7 +4151,7 @@
         <v>4000006</v>
       </c>
       <c r="B143">
-        <v>252022</v>
+        <v>252142</v>
       </c>
       <c r="C143" t="s">
         <v>41</v>
@@ -4215,7 +4175,7 @@
         <v>4000006</v>
       </c>
       <c r="B144">
-        <v>253023</v>
+        <v>253143</v>
       </c>
       <c r="C144" t="s">
         <v>41</v>
@@ -4239,7 +4199,7 @@
         <v>4000006</v>
       </c>
       <c r="B145">
-        <v>254024</v>
+        <v>254144</v>
       </c>
       <c r="C145" t="s">
         <v>41</v>
@@ -4260,13 +4220,13 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A146">
-        <v>2000001</v>
+        <v>300001</v>
       </c>
       <c r="B146">
-        <v>3000001</v>
-      </c>
-      <c r="C146" t="s">
-        <v>42</v>
+        <v>241001</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -4275,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="F146">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -4284,13 +4244,13 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A147">
-        <v>2000002</v>
+        <v>300001</v>
       </c>
       <c r="B147">
-        <v>3000002</v>
-      </c>
-      <c r="C147" t="s">
-        <v>43</v>
+        <v>241005</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -4299,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -4308,13 +4268,13 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A148">
-        <v>2000003</v>
+        <v>300001</v>
       </c>
       <c r="B148">
-        <v>3000003</v>
-      </c>
-      <c r="C148" t="s">
-        <v>44</v>
+        <v>241009</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -4323,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="F148">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -4332,13 +4292,13 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A149">
-        <v>2000004</v>
+        <v>300001</v>
       </c>
       <c r="B149">
-        <v>3000004</v>
-      </c>
-      <c r="C149" t="s">
-        <v>45</v>
+        <v>241013</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -4347,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -4356,13 +4316,13 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A150">
-        <v>2000005</v>
+        <v>300001</v>
       </c>
       <c r="B150">
-        <v>3000005</v>
-      </c>
-      <c r="C150" t="s">
-        <v>46</v>
+        <v>241017</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -4371,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -4380,13 +4340,13 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A151">
-        <v>2000006</v>
+        <v>300001</v>
       </c>
       <c r="B151">
-        <v>3000006</v>
-      </c>
-      <c r="C151" t="s">
-        <v>47</v>
+        <v>241021</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -4395,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="F151">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -4404,13 +4364,13 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A152">
-        <v>2000007</v>
+        <v>300001</v>
       </c>
       <c r="B152">
-        <v>3000007</v>
-      </c>
-      <c r="C152" t="s">
-        <v>48</v>
+        <v>221025</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -4419,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -4428,13 +4388,13 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A153">
-        <v>2000008</v>
+        <v>300001</v>
       </c>
       <c r="B153">
-        <v>3000008</v>
-      </c>
-      <c r="C153" t="s">
-        <v>49</v>
+        <v>221029</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -4443,22 +4403,21 @@
         <v>1</v>
       </c>
       <c r="F153">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G153">
         <v>1</v>
       </c>
-      <c r="Q153" s="2"/>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A154">
-        <v>2000009</v>
+        <v>300001</v>
       </c>
       <c r="B154">
-        <v>3000009</v>
-      </c>
-      <c r="C154" t="s">
-        <v>50</v>
+        <v>221033</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -4467,22 +4426,21 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G154">
         <v>1</v>
       </c>
-      <c r="Q154" s="2"/>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A155">
-        <v>2000010</v>
+        <v>300001</v>
       </c>
       <c r="B155">
-        <v>3000010</v>
-      </c>
-      <c r="C155" t="s">
-        <v>51</v>
+        <v>221037</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -4491,22 +4449,21 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G155">
         <v>1</v>
       </c>
-      <c r="Q155" s="2"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A156">
-        <v>2000011</v>
+        <v>300001</v>
       </c>
       <c r="B156">
-        <v>3000011</v>
-      </c>
-      <c r="C156" t="s">
-        <v>52</v>
+        <v>221041</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -4515,22 +4472,21 @@
         <v>1</v>
       </c>
       <c r="F156">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G156">
         <v>1</v>
       </c>
-      <c r="Q156" s="2"/>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A157">
-        <v>2000012</v>
+        <v>300001</v>
       </c>
       <c r="B157">
-        <v>3000012</v>
-      </c>
-      <c r="C157" t="s">
-        <v>53</v>
+        <v>221045</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -4539,22 +4495,21 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G157">
         <v>1</v>
       </c>
-      <c r="Q157" s="2"/>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A158">
-        <v>2000013</v>
+        <v>300001</v>
       </c>
       <c r="B158">
-        <v>3000013</v>
-      </c>
-      <c r="C158" t="s">
-        <v>54</v>
+        <v>231049</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -4563,22 +4518,21 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G158">
         <v>1</v>
       </c>
-      <c r="Q158" s="2"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A159">
-        <v>2000014</v>
+        <v>300001</v>
       </c>
       <c r="B159">
-        <v>3000014</v>
-      </c>
-      <c r="C159" t="s">
-        <v>55</v>
+        <v>231053</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -4587,22 +4541,21 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G159">
         <v>1</v>
       </c>
-      <c r="Q159" s="2"/>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A160">
-        <v>2000015</v>
+        <v>300001</v>
       </c>
       <c r="B160">
-        <v>3000015</v>
-      </c>
-      <c r="C160" t="s">
-        <v>56</v>
+        <v>231057</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -4611,22 +4564,21 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G160">
         <v>1</v>
       </c>
-      <c r="Q160" s="2"/>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>300001</v>
       </c>
       <c r="B161">
-        <v>241001</v>
+        <v>231061</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -4640,17 +4592,16 @@
       <c r="G161">
         <v>1</v>
       </c>
-      <c r="Q161" s="2"/>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>300001</v>
       </c>
       <c r="B162">
-        <v>241005</v>
+        <v>231065</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -4664,17 +4615,16 @@
       <c r="G162">
         <v>1</v>
       </c>
-      <c r="Q162" s="2"/>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>300001</v>
       </c>
       <c r="B163">
-        <v>241009</v>
+        <v>231069</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -4688,17 +4638,16 @@
       <c r="G163">
         <v>1</v>
       </c>
-      <c r="Q163" s="2"/>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>300001</v>
       </c>
       <c r="B164">
-        <v>241013</v>
+        <v>261073</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -4712,17 +4661,16 @@
       <c r="G164">
         <v>1</v>
       </c>
-      <c r="Q164" s="2"/>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>300001</v>
       </c>
       <c r="B165">
-        <v>241017</v>
+        <v>261077</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -4736,17 +4684,16 @@
       <c r="G165">
         <v>1</v>
       </c>
-      <c r="Q165" s="2"/>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>300001</v>
       </c>
       <c r="B166">
-        <v>241021</v>
+        <v>261081</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -4760,17 +4707,16 @@
       <c r="G166">
         <v>1</v>
       </c>
-      <c r="Q166" s="2"/>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>300001</v>
       </c>
       <c r="B167">
-        <v>221001</v>
+        <v>261085</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -4784,17 +4730,16 @@
       <c r="G167">
         <v>1</v>
       </c>
-      <c r="Q167" s="2"/>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>300001</v>
       </c>
       <c r="B168">
-        <v>221005</v>
+        <v>261089</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -4809,15 +4754,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>300001</v>
       </c>
       <c r="B169">
-        <v>221009</v>
+        <v>261093</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -4832,15 +4777,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>300001</v>
       </c>
       <c r="B170">
-        <v>221013</v>
+        <v>211097</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -4855,15 +4800,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>300001</v>
       </c>
       <c r="B171">
-        <v>221017</v>
+        <v>211101</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -4878,15 +4823,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>300001</v>
       </c>
       <c r="B172">
-        <v>221021</v>
+        <v>211105</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -4901,15 +4846,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>300001</v>
       </c>
       <c r="B173">
-        <v>231001</v>
+        <v>211109</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -4924,15 +4869,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>300001</v>
       </c>
       <c r="B174">
-        <v>231005</v>
+        <v>211113</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -4947,15 +4892,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>300001</v>
       </c>
       <c r="B175">
-        <v>231009</v>
+        <v>211117</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -4970,15 +4915,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>300001</v>
       </c>
       <c r="B176">
-        <v>231013</v>
+        <v>251121</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -4998,10 +4943,10 @@
         <v>300001</v>
       </c>
       <c r="B177">
-        <v>231017</v>
+        <v>251125</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -5021,10 +4966,10 @@
         <v>300001</v>
       </c>
       <c r="B178">
-        <v>231021</v>
+        <v>251129</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -5044,10 +4989,10 @@
         <v>300001</v>
       </c>
       <c r="B179">
-        <v>261001</v>
+        <v>251133</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -5067,10 +5012,10 @@
         <v>300001</v>
       </c>
       <c r="B180">
-        <v>261005</v>
+        <v>251137</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -5090,10 +5035,10 @@
         <v>300001</v>
       </c>
       <c r="B181">
-        <v>261009</v>
+        <v>251141</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -5110,13 +5055,13 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="B182">
-        <v>261013</v>
+        <v>242002</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -5133,13 +5078,13 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="B183">
-        <v>261017</v>
+        <v>242006</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -5156,13 +5101,13 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="B184">
-        <v>261021</v>
+        <v>242010</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -5179,13 +5124,13 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="B185">
-        <v>211001</v>
+        <v>242014</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -5202,13 +5147,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="B186">
-        <v>211005</v>
+        <v>242018</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -5225,13 +5170,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="B187">
-        <v>211009</v>
+        <v>242022</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -5248,13 +5193,13 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="B188">
-        <v>211013</v>
+        <v>222026</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -5271,13 +5216,13 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="B189">
-        <v>211017</v>
+        <v>222030</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -5294,13 +5239,13 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="B190">
-        <v>211021</v>
+        <v>222034</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -5317,13 +5262,13 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="B191">
-        <v>251001</v>
+        <v>222038</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -5340,13 +5285,13 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="B192">
-        <v>251005</v>
+        <v>222042</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -5363,13 +5308,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="B193">
-        <v>251009</v>
+        <v>222046</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -5386,13 +5331,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="B194">
-        <v>251013</v>
+        <v>232050</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -5409,13 +5354,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="B195">
-        <v>251017</v>
+        <v>232054</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -5432,13 +5377,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="B196">
-        <v>251021</v>
+        <v>232058</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -5458,10 +5403,10 @@
         <v>300002</v>
       </c>
       <c r="B197">
-        <v>241002</v>
+        <v>232062</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -5481,10 +5426,10 @@
         <v>300002</v>
       </c>
       <c r="B198">
-        <v>241006</v>
+        <v>232066</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -5504,10 +5449,10 @@
         <v>300002</v>
       </c>
       <c r="B199">
-        <v>241010</v>
+        <v>232070</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -5527,10 +5472,10 @@
         <v>300002</v>
       </c>
       <c r="B200">
-        <v>241014</v>
+        <v>262074</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -5550,10 +5495,10 @@
         <v>300002</v>
       </c>
       <c r="B201">
-        <v>241018</v>
+        <v>262078</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -5573,10 +5518,10 @@
         <v>300002</v>
       </c>
       <c r="B202">
-        <v>241022</v>
+        <v>262082</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -5596,10 +5541,10 @@
         <v>300002</v>
       </c>
       <c r="B203">
-        <v>221002</v>
+        <v>262086</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -5619,10 +5564,10 @@
         <v>300002</v>
       </c>
       <c r="B204">
-        <v>221006</v>
+        <v>262090</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -5642,10 +5587,10 @@
         <v>300002</v>
       </c>
       <c r="B205">
-        <v>221010</v>
+        <v>262094</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -5665,10 +5610,10 @@
         <v>300002</v>
       </c>
       <c r="B206">
-        <v>221014</v>
+        <v>212098</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -5688,10 +5633,10 @@
         <v>300002</v>
       </c>
       <c r="B207">
-        <v>221018</v>
+        <v>212102</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -5711,10 +5656,10 @@
         <v>300002</v>
       </c>
       <c r="B208">
-        <v>221022</v>
+        <v>212106</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -5734,10 +5679,10 @@
         <v>300002</v>
       </c>
       <c r="B209">
-        <v>231002</v>
+        <v>212110</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -5757,10 +5702,10 @@
         <v>300002</v>
       </c>
       <c r="B210">
-        <v>231006</v>
+        <v>212114</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -5780,10 +5725,10 @@
         <v>300002</v>
       </c>
       <c r="B211">
-        <v>231010</v>
+        <v>212118</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -5803,10 +5748,10 @@
         <v>300002</v>
       </c>
       <c r="B212">
-        <v>231014</v>
+        <v>252122</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -5826,10 +5771,10 @@
         <v>300002</v>
       </c>
       <c r="B213">
-        <v>231018</v>
+        <v>252126</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -5849,10 +5794,10 @@
         <v>300002</v>
       </c>
       <c r="B214">
-        <v>231022</v>
+        <v>252130</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -5872,10 +5817,10 @@
         <v>300002</v>
       </c>
       <c r="B215">
-        <v>261002</v>
+        <v>252134</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -5895,10 +5840,10 @@
         <v>300002</v>
       </c>
       <c r="B216">
-        <v>261006</v>
+        <v>252138</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -5918,10 +5863,10 @@
         <v>300002</v>
       </c>
       <c r="B217">
-        <v>261010</v>
+        <v>252142</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -5938,13 +5883,13 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A218">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="B218">
-        <v>261014</v>
+        <v>243003</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -5961,13 +5906,13 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A219">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="B219">
-        <v>261018</v>
+        <v>243007</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -5984,13 +5929,13 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A220">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="B220">
-        <v>261022</v>
+        <v>243011</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -6007,13 +5952,13 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A221">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="B221">
-        <v>211002</v>
+        <v>243015</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -6030,13 +5975,13 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A222">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="B222">
-        <v>211006</v>
+        <v>243019</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -6053,13 +5998,13 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A223">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="B223">
-        <v>211010</v>
+        <v>243023</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -6076,13 +6021,13 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A224">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="B224">
-        <v>211014</v>
+        <v>223027</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -6099,13 +6044,13 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A225">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="B225">
-        <v>211018</v>
+        <v>223031</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -6122,13 +6067,13 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A226">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="B226">
-        <v>211022</v>
+        <v>223035</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -6145,13 +6090,13 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A227">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="B227">
-        <v>251002</v>
+        <v>223039</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -6168,13 +6113,13 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A228">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="B228">
-        <v>251006</v>
+        <v>223043</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -6191,13 +6136,13 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A229">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="B229">
-        <v>251010</v>
+        <v>223047</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -6214,13 +6159,13 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A230">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="B230">
-        <v>251014</v>
+        <v>233051</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -6237,13 +6182,13 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A231">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="B231">
-        <v>251018</v>
+        <v>233055</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -6260,13 +6205,13 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A232">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="B232">
-        <v>251022</v>
+        <v>233059</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -6286,10 +6231,10 @@
         <v>300003</v>
       </c>
       <c r="B233">
-        <v>241003</v>
+        <v>233063</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -6309,10 +6254,10 @@
         <v>300003</v>
       </c>
       <c r="B234">
-        <v>241007</v>
+        <v>233067</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -6332,10 +6277,10 @@
         <v>300003</v>
       </c>
       <c r="B235">
-        <v>241011</v>
+        <v>233071</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -6355,10 +6300,10 @@
         <v>300003</v>
       </c>
       <c r="B236">
-        <v>241015</v>
+        <v>263075</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -6378,10 +6323,10 @@
         <v>300003</v>
       </c>
       <c r="B237">
-        <v>241019</v>
+        <v>263079</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -6401,10 +6346,10 @@
         <v>300003</v>
       </c>
       <c r="B238">
-        <v>241023</v>
+        <v>263083</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -6424,10 +6369,10 @@
         <v>300003</v>
       </c>
       <c r="B239">
-        <v>221003</v>
+        <v>263087</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -6447,10 +6392,10 @@
         <v>300003</v>
       </c>
       <c r="B240">
-        <v>221007</v>
+        <v>263091</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -6470,10 +6415,10 @@
         <v>300003</v>
       </c>
       <c r="B241">
-        <v>221011</v>
+        <v>263095</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D241">
         <v>1</v>
@@ -6493,10 +6438,10 @@
         <v>300003</v>
       </c>
       <c r="B242">
-        <v>221015</v>
+        <v>213099</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -6516,10 +6461,10 @@
         <v>300003</v>
       </c>
       <c r="B243">
-        <v>221019</v>
+        <v>213103</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -6539,10 +6484,10 @@
         <v>300003</v>
       </c>
       <c r="B244">
-        <v>221023</v>
+        <v>213107</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -6562,10 +6507,10 @@
         <v>300003</v>
       </c>
       <c r="B245">
-        <v>231003</v>
+        <v>213111</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -6585,10 +6530,10 @@
         <v>300003</v>
       </c>
       <c r="B246">
-        <v>231007</v>
+        <v>213115</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -6608,10 +6553,10 @@
         <v>300003</v>
       </c>
       <c r="B247">
-        <v>231011</v>
+        <v>213119</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -6631,10 +6576,10 @@
         <v>300003</v>
       </c>
       <c r="B248">
-        <v>231015</v>
+        <v>253123</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -6654,10 +6599,10 @@
         <v>300003</v>
       </c>
       <c r="B249">
-        <v>231019</v>
+        <v>253127</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -6677,10 +6622,10 @@
         <v>300003</v>
       </c>
       <c r="B250">
-        <v>231023</v>
+        <v>253131</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D250">
         <v>1</v>
@@ -6700,10 +6645,10 @@
         <v>300003</v>
       </c>
       <c r="B251">
-        <v>261003</v>
+        <v>253135</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -6723,10 +6668,10 @@
         <v>300003</v>
       </c>
       <c r="B252">
-        <v>261007</v>
+        <v>253139</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -6746,10 +6691,10 @@
         <v>300003</v>
       </c>
       <c r="B253">
-        <v>261011</v>
+        <v>253143</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -6766,13 +6711,13 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A254">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="B254">
-        <v>261015</v>
+        <v>244004</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -6789,13 +6734,13 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A255">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="B255">
-        <v>261019</v>
+        <v>244008</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D255">
         <v>1</v>
@@ -6812,13 +6757,13 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A256">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="B256">
-        <v>261023</v>
+        <v>244012</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -6835,13 +6780,13 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A257">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="B257">
-        <v>211003</v>
+        <v>244016</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -6858,13 +6803,13 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A258">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="B258">
-        <v>211007</v>
+        <v>244020</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -6881,13 +6826,13 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A259">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="B259">
-        <v>211011</v>
+        <v>244024</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -6904,13 +6849,13 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A260">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="B260">
-        <v>211015</v>
+        <v>224028</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -6927,13 +6872,13 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A261">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="B261">
-        <v>211019</v>
+        <v>224032</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -6950,13 +6895,13 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A262">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="B262">
-        <v>211023</v>
+        <v>224036</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -6973,13 +6918,13 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A263">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="B263">
-        <v>251003</v>
+        <v>224040</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -6996,13 +6941,13 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A264">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="B264">
-        <v>251007</v>
+        <v>224044</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -7019,13 +6964,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A265">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="B265">
-        <v>251011</v>
+        <v>224048</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D265">
         <v>1</v>
@@ -7042,13 +6987,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A266">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="B266">
-        <v>251015</v>
+        <v>234052</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -7065,13 +7010,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A267">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="B267">
-        <v>251019</v>
+        <v>234056</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -7088,13 +7033,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A268">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="B268">
-        <v>251023</v>
+        <v>234060</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D268">
         <v>1</v>
@@ -7114,10 +7059,10 @@
         <v>300004</v>
       </c>
       <c r="B269">
-        <v>241004</v>
+        <v>234064</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -7137,10 +7082,10 @@
         <v>300004</v>
       </c>
       <c r="B270">
-        <v>241008</v>
+        <v>234068</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -7160,10 +7105,10 @@
         <v>300004</v>
       </c>
       <c r="B271">
-        <v>241012</v>
+        <v>234072</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -7183,10 +7128,10 @@
         <v>300004</v>
       </c>
       <c r="B272">
-        <v>241016</v>
+        <v>264076</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -7206,10 +7151,10 @@
         <v>300004</v>
       </c>
       <c r="B273">
-        <v>241020</v>
+        <v>264080</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -7229,10 +7174,10 @@
         <v>300004</v>
       </c>
       <c r="B274">
-        <v>241024</v>
+        <v>264084</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -7252,10 +7197,10 @@
         <v>300004</v>
       </c>
       <c r="B275">
-        <v>221004</v>
+        <v>264088</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -7275,10 +7220,10 @@
         <v>300004</v>
       </c>
       <c r="B276">
-        <v>221008</v>
+        <v>264092</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -7298,10 +7243,10 @@
         <v>300004</v>
       </c>
       <c r="B277">
-        <v>221012</v>
+        <v>264096</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -7321,10 +7266,10 @@
         <v>300004</v>
       </c>
       <c r="B278">
-        <v>221016</v>
+        <v>214100</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -7344,10 +7289,10 @@
         <v>300004</v>
       </c>
       <c r="B279">
-        <v>221020</v>
+        <v>214104</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -7367,10 +7312,10 @@
         <v>300004</v>
       </c>
       <c r="B280">
-        <v>221024</v>
+        <v>214108</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -7390,10 +7335,10 @@
         <v>300004</v>
       </c>
       <c r="B281">
-        <v>231004</v>
+        <v>214112</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -7413,10 +7358,10 @@
         <v>300004</v>
       </c>
       <c r="B282">
-        <v>231008</v>
+        <v>214116</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -7436,10 +7381,10 @@
         <v>300004</v>
       </c>
       <c r="B283">
-        <v>231012</v>
+        <v>214120</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -7459,10 +7404,10 @@
         <v>300004</v>
       </c>
       <c r="B284">
-        <v>231016</v>
+        <v>254128</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -7482,10 +7427,10 @@
         <v>300004</v>
       </c>
       <c r="B285">
-        <v>231020</v>
+        <v>254132</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -7505,10 +7450,10 @@
         <v>300004</v>
       </c>
       <c r="B286">
-        <v>231024</v>
+        <v>254136</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -7528,10 +7473,10 @@
         <v>300004</v>
       </c>
       <c r="B287">
-        <v>261004</v>
+        <v>254140</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -7551,10 +7496,10 @@
         <v>300004</v>
       </c>
       <c r="B288">
-        <v>261008</v>
+        <v>254144</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -7571,13 +7516,13 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A289">
-        <v>300004</v>
+        <v>500001</v>
       </c>
       <c r="B289">
-        <v>261012</v>
+        <v>241001</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -7586,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="F289">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G289">
         <v>1</v>
@@ -7594,13 +7539,13 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A290">
-        <v>300004</v>
-      </c>
-      <c r="B290">
-        <v>261016</v>
+        <v>500002</v>
+      </c>
+      <c r="B290" s="1">
+        <v>251121</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -7609,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="F290">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G290">
         <v>1</v>
@@ -7617,13 +7562,13 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A291">
-        <v>300004</v>
+        <v>500003</v>
       </c>
       <c r="B291">
-        <v>261020</v>
+        <v>261073</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -7632,7 +7577,7 @@
         <v>1</v>
       </c>
       <c r="F291">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -7640,13 +7585,13 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A292">
-        <v>300004</v>
+        <v>500004</v>
       </c>
       <c r="B292">
-        <v>261024</v>
+        <v>231049</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -7655,7 +7600,7 @@
         <v>1</v>
       </c>
       <c r="F292">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G292">
         <v>1</v>
@@ -7663,13 +7608,13 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A293">
-        <v>300004</v>
+        <v>500005</v>
       </c>
       <c r="B293">
-        <v>211004</v>
+        <v>221025</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -7678,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="F293">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -7686,13 +7631,13 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A294">
-        <v>300004</v>
+        <v>500006</v>
       </c>
       <c r="B294">
-        <v>211008</v>
+        <v>211097</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -7701,7 +7646,7 @@
         <v>1</v>
       </c>
       <c r="F294">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -7709,13 +7654,13 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A295">
-        <v>300004</v>
+        <v>300005</v>
       </c>
       <c r="B295">
-        <v>211012</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>79</v>
+        <v>241001</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
       </c>
       <c r="D295">
         <v>1</v>
@@ -7732,13 +7677,13 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A296">
-        <v>300004</v>
+        <v>300005</v>
       </c>
       <c r="B296">
-        <v>211016</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>79</v>
+        <v>241005</v>
+      </c>
+      <c r="C296" t="s">
+        <v>7</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -7755,13 +7700,13 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A297">
-        <v>300004</v>
+        <v>300005</v>
       </c>
       <c r="B297">
-        <v>211020</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>79</v>
+        <v>241009</v>
+      </c>
+      <c r="C297" t="s">
+        <v>8</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -7778,13 +7723,13 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A298">
-        <v>300004</v>
+        <v>300005</v>
       </c>
       <c r="B298">
-        <v>211024</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>79</v>
+        <v>241013</v>
+      </c>
+      <c r="C298" t="s">
+        <v>9</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -7801,13 +7746,13 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A299">
-        <v>300004</v>
+        <v>300005</v>
       </c>
       <c r="B299">
-        <v>251004</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>80</v>
+        <v>241017</v>
+      </c>
+      <c r="C299" t="s">
+        <v>10</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -7824,13 +7769,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A300">
-        <v>300004</v>
+        <v>300005</v>
       </c>
       <c r="B300">
-        <v>251008</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>80</v>
+        <v>241021</v>
+      </c>
+      <c r="C300" t="s">
+        <v>11</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -7847,13 +7792,13 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A301">
-        <v>300004</v>
+        <v>300005</v>
       </c>
       <c r="B301">
-        <v>251012</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>80</v>
+        <v>221025</v>
+      </c>
+      <c r="C301" t="s">
+        <v>12</v>
       </c>
       <c r="D301">
         <v>1</v>
@@ -7870,13 +7815,13 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A302">
-        <v>300004</v>
+        <v>300005</v>
       </c>
       <c r="B302">
-        <v>251016</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>80</v>
+        <v>221029</v>
+      </c>
+      <c r="C302" t="s">
+        <v>13</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -7893,13 +7838,13 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A303">
-        <v>300004</v>
+        <v>300005</v>
       </c>
       <c r="B303">
-        <v>251020</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>80</v>
+        <v>221033</v>
+      </c>
+      <c r="C303" t="s">
+        <v>14</v>
       </c>
       <c r="D303">
         <v>1</v>
@@ -7916,13 +7861,13 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A304">
-        <v>300004</v>
+        <v>300005</v>
       </c>
       <c r="B304">
-        <v>251024</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>80</v>
+        <v>221037</v>
+      </c>
+      <c r="C304" t="s">
+        <v>15</v>
       </c>
       <c r="D304">
         <v>1</v>
@@ -7939,13 +7884,13 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A305">
-        <v>500001</v>
-      </c>
-      <c r="B305" s="1">
-        <v>241001</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>81</v>
+        <v>300005</v>
+      </c>
+      <c r="B305">
+        <v>221041</v>
+      </c>
+      <c r="C305" t="s">
+        <v>16</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -7954,7 +7899,7 @@
         <v>1</v>
       </c>
       <c r="F305">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G305">
         <v>1</v>
@@ -7962,13 +7907,13 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A306">
-        <v>500002</v>
+        <v>300005</v>
       </c>
       <c r="B306">
-        <v>251001</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>82</v>
+        <v>221045</v>
+      </c>
+      <c r="C306" t="s">
+        <v>17</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -7977,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="F306">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G306">
         <v>1</v>
@@ -7985,13 +7930,13 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A307">
-        <v>500003</v>
+        <v>300005</v>
       </c>
       <c r="B307">
-        <v>261001</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>83</v>
+        <v>231049</v>
+      </c>
+      <c r="C307" t="s">
+        <v>18</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -8000,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="F307">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G307">
         <v>1</v>
@@ -8008,13 +7953,13 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A308">
-        <v>500004</v>
+        <v>300005</v>
       </c>
       <c r="B308">
-        <v>231001</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>84</v>
+        <v>231053</v>
+      </c>
+      <c r="C308" t="s">
+        <v>19</v>
       </c>
       <c r="D308">
         <v>1</v>
@@ -8023,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="F308">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G308">
         <v>1</v>
@@ -8031,13 +7976,13 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A309">
-        <v>500005</v>
+        <v>300005</v>
       </c>
       <c r="B309">
-        <v>221001</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>85</v>
+        <v>231057</v>
+      </c>
+      <c r="C309" t="s">
+        <v>20</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -8046,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="F309">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G309">
         <v>1</v>
@@ -8054,13 +7999,13 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A310">
-        <v>500006</v>
+        <v>300005</v>
       </c>
       <c r="B310">
-        <v>211001</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>86</v>
+        <v>231061</v>
+      </c>
+      <c r="C310" t="s">
+        <v>21</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -8069,17 +8014,4470 @@
         <v>1</v>
       </c>
       <c r="F310">
+        <v>1000</v>
+      </c>
+      <c r="G310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A311">
+        <v>300005</v>
+      </c>
+      <c r="B311">
+        <v>231065</v>
+      </c>
+      <c r="C311" t="s">
+        <v>22</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+      <c r="F311">
+        <v>1000</v>
+      </c>
+      <c r="G311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A312">
+        <v>300005</v>
+      </c>
+      <c r="B312">
+        <v>231069</v>
+      </c>
+      <c r="C312" t="s">
+        <v>23</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="F312">
+        <v>1000</v>
+      </c>
+      <c r="G312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A313">
+        <v>300005</v>
+      </c>
+      <c r="B313">
+        <v>261073</v>
+      </c>
+      <c r="C313" t="s">
+        <v>24</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+      <c r="F313">
+        <v>1000</v>
+      </c>
+      <c r="G313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A314">
+        <v>300005</v>
+      </c>
+      <c r="B314">
+        <v>261077</v>
+      </c>
+      <c r="C314" t="s">
+        <v>25</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314">
+        <v>1000</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A315">
+        <v>300005</v>
+      </c>
+      <c r="B315">
+        <v>261081</v>
+      </c>
+      <c r="C315" t="s">
+        <v>26</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+      <c r="F315">
+        <v>1000</v>
+      </c>
+      <c r="G315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A316">
+        <v>300005</v>
+      </c>
+      <c r="B316">
+        <v>261085</v>
+      </c>
+      <c r="C316" t="s">
+        <v>27</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+      <c r="F316">
+        <v>1000</v>
+      </c>
+      <c r="G316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A317">
+        <v>300005</v>
+      </c>
+      <c r="B317">
+        <v>261089</v>
+      </c>
+      <c r="C317" t="s">
+        <v>28</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
+      <c r="F317">
+        <v>1000</v>
+      </c>
+      <c r="G317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A318">
+        <v>300005</v>
+      </c>
+      <c r="B318">
+        <v>261093</v>
+      </c>
+      <c r="C318" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+      <c r="F318">
+        <v>1000</v>
+      </c>
+      <c r="G318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A319">
+        <v>300005</v>
+      </c>
+      <c r="B319">
+        <v>211097</v>
+      </c>
+      <c r="C319" t="s">
+        <v>30</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+      <c r="F319">
+        <v>1000</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A320">
+        <v>300005</v>
+      </c>
+      <c r="B320">
+        <v>211101</v>
+      </c>
+      <c r="C320" t="s">
+        <v>31</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+      <c r="F320">
+        <v>1000</v>
+      </c>
+      <c r="G320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A321">
+        <v>300005</v>
+      </c>
+      <c r="B321">
+        <v>211105</v>
+      </c>
+      <c r="C321" t="s">
+        <v>32</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+      <c r="F321">
+        <v>1000</v>
+      </c>
+      <c r="G321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A322">
+        <v>300005</v>
+      </c>
+      <c r="B322">
+        <v>211109</v>
+      </c>
+      <c r="C322" t="s">
+        <v>33</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+      <c r="F322">
+        <v>1000</v>
+      </c>
+      <c r="G322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A323">
+        <v>300005</v>
+      </c>
+      <c r="B323">
+        <v>211113</v>
+      </c>
+      <c r="C323" t="s">
+        <v>34</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+      <c r="F323">
+        <v>1000</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A324">
+        <v>300005</v>
+      </c>
+      <c r="B324">
+        <v>211117</v>
+      </c>
+      <c r="C324" t="s">
+        <v>35</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+      <c r="F324">
+        <v>1000</v>
+      </c>
+      <c r="G324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A325">
+        <v>300005</v>
+      </c>
+      <c r="B325">
+        <v>251121</v>
+      </c>
+      <c r="C325" t="s">
+        <v>36</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+      <c r="F325">
+        <v>1000</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A326">
+        <v>300005</v>
+      </c>
+      <c r="B326">
+        <v>251125</v>
+      </c>
+      <c r="C326" t="s">
+        <v>37</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>1000</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A327">
+        <v>300005</v>
+      </c>
+      <c r="B327">
+        <v>251129</v>
+      </c>
+      <c r="C327" t="s">
+        <v>38</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <v>1000</v>
+      </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A328">
+        <v>300005</v>
+      </c>
+      <c r="B328">
+        <v>251133</v>
+      </c>
+      <c r="C328" t="s">
+        <v>39</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>1000</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A329">
+        <v>300005</v>
+      </c>
+      <c r="B329">
+        <v>251137</v>
+      </c>
+      <c r="C329" t="s">
+        <v>40</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="F329">
+        <v>1000</v>
+      </c>
+      <c r="G329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A330">
+        <v>300005</v>
+      </c>
+      <c r="B330">
+        <v>251141</v>
+      </c>
+      <c r="C330" t="s">
+        <v>41</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="F330">
+        <v>1000</v>
+      </c>
+      <c r="G330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A331">
+        <v>300005</v>
+      </c>
+      <c r="B331">
+        <v>242002</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+      <c r="E331">
+        <v>1</v>
+      </c>
+      <c r="F331">
+        <v>1000</v>
+      </c>
+      <c r="G331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A332">
+        <v>300005</v>
+      </c>
+      <c r="B332">
+        <v>242006</v>
+      </c>
+      <c r="C332" t="s">
+        <v>7</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>1000</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A333">
+        <v>300005</v>
+      </c>
+      <c r="B333">
+        <v>242010</v>
+      </c>
+      <c r="C333" t="s">
+        <v>8</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>1000</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A334">
+        <v>300005</v>
+      </c>
+      <c r="B334">
+        <v>242014</v>
+      </c>
+      <c r="C334" t="s">
+        <v>9</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+      <c r="F334">
+        <v>1000</v>
+      </c>
+      <c r="G334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A335">
+        <v>300005</v>
+      </c>
+      <c r="B335">
+        <v>242018</v>
+      </c>
+      <c r="C335" t="s">
+        <v>10</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="F335">
+        <v>1000</v>
+      </c>
+      <c r="G335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A336">
+        <v>300005</v>
+      </c>
+      <c r="B336">
+        <v>242022</v>
+      </c>
+      <c r="C336" t="s">
+        <v>11</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="F336">
+        <v>1000</v>
+      </c>
+      <c r="G336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A337">
+        <v>300005</v>
+      </c>
+      <c r="B337">
+        <v>222026</v>
+      </c>
+      <c r="C337" t="s">
+        <v>12</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>1000</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A338">
+        <v>300005</v>
+      </c>
+      <c r="B338">
+        <v>222030</v>
+      </c>
+      <c r="C338" t="s">
+        <v>13</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>1000</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A339">
+        <v>300005</v>
+      </c>
+      <c r="B339">
+        <v>222034</v>
+      </c>
+      <c r="C339" t="s">
+        <v>14</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+      <c r="F339">
+        <v>1000</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A340">
+        <v>300005</v>
+      </c>
+      <c r="B340">
+        <v>222038</v>
+      </c>
+      <c r="C340" t="s">
+        <v>15</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+      <c r="F340">
+        <v>1000</v>
+      </c>
+      <c r="G340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A341">
+        <v>300005</v>
+      </c>
+      <c r="B341">
+        <v>222042</v>
+      </c>
+      <c r="C341" t="s">
+        <v>16</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>1000</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A342">
+        <v>300005</v>
+      </c>
+      <c r="B342">
+        <v>222046</v>
+      </c>
+      <c r="C342" t="s">
+        <v>17</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+      <c r="F342">
+        <v>1000</v>
+      </c>
+      <c r="G342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A343">
+        <v>300005</v>
+      </c>
+      <c r="B343">
+        <v>232050</v>
+      </c>
+      <c r="C343" t="s">
+        <v>18</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="F343">
+        <v>1000</v>
+      </c>
+      <c r="G343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A344">
+        <v>300005</v>
+      </c>
+      <c r="B344">
+        <v>232054</v>
+      </c>
+      <c r="C344" t="s">
+        <v>19</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344">
+        <v>1000</v>
+      </c>
+      <c r="G344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A345">
+        <v>300005</v>
+      </c>
+      <c r="B345">
+        <v>232058</v>
+      </c>
+      <c r="C345" t="s">
+        <v>20</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>1000</v>
+      </c>
+      <c r="G345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A346">
+        <v>300005</v>
+      </c>
+      <c r="B346">
+        <v>232062</v>
+      </c>
+      <c r="C346" t="s">
+        <v>21</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346">
+        <v>1000</v>
+      </c>
+      <c r="G346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A347">
+        <v>300005</v>
+      </c>
+      <c r="B347">
+        <v>232066</v>
+      </c>
+      <c r="C347" t="s">
+        <v>22</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+      <c r="E347">
+        <v>1</v>
+      </c>
+      <c r="F347">
+        <v>1000</v>
+      </c>
+      <c r="G347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A348">
+        <v>300005</v>
+      </c>
+      <c r="B348">
+        <v>232070</v>
+      </c>
+      <c r="C348" t="s">
+        <v>23</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+      <c r="E348">
+        <v>1</v>
+      </c>
+      <c r="F348">
+        <v>1000</v>
+      </c>
+      <c r="G348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A349">
+        <v>300005</v>
+      </c>
+      <c r="B349">
+        <v>262074</v>
+      </c>
+      <c r="C349" t="s">
+        <v>24</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349">
+        <v>1</v>
+      </c>
+      <c r="F349">
+        <v>1000</v>
+      </c>
+      <c r="G349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A350">
+        <v>300005</v>
+      </c>
+      <c r="B350">
+        <v>262078</v>
+      </c>
+      <c r="C350" t="s">
+        <v>25</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
+      <c r="F350">
+        <v>1000</v>
+      </c>
+      <c r="G350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A351">
+        <v>300005</v>
+      </c>
+      <c r="B351">
+        <v>262082</v>
+      </c>
+      <c r="C351" t="s">
+        <v>26</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+      <c r="E351">
+        <v>1</v>
+      </c>
+      <c r="F351">
+        <v>1000</v>
+      </c>
+      <c r="G351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A352">
+        <v>300005</v>
+      </c>
+      <c r="B352">
+        <v>262086</v>
+      </c>
+      <c r="C352" t="s">
+        <v>27</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+      <c r="E352">
+        <v>1</v>
+      </c>
+      <c r="F352">
+        <v>1000</v>
+      </c>
+      <c r="G352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A353">
+        <v>300005</v>
+      </c>
+      <c r="B353">
+        <v>262090</v>
+      </c>
+      <c r="C353" t="s">
+        <v>28</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+      <c r="E353">
+        <v>1</v>
+      </c>
+      <c r="F353">
+        <v>1000</v>
+      </c>
+      <c r="G353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A354">
+        <v>300005</v>
+      </c>
+      <c r="B354">
+        <v>262094</v>
+      </c>
+      <c r="C354" t="s">
+        <v>29</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+      <c r="E354">
+        <v>1</v>
+      </c>
+      <c r="F354">
+        <v>1000</v>
+      </c>
+      <c r="G354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A355">
+        <v>300005</v>
+      </c>
+      <c r="B355">
+        <v>212098</v>
+      </c>
+      <c r="C355" t="s">
+        <v>30</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355">
+        <v>1</v>
+      </c>
+      <c r="F355">
+        <v>1000</v>
+      </c>
+      <c r="G355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A356">
+        <v>300005</v>
+      </c>
+      <c r="B356">
+        <v>212102</v>
+      </c>
+      <c r="C356" t="s">
+        <v>31</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356">
+        <v>1</v>
+      </c>
+      <c r="F356">
+        <v>1000</v>
+      </c>
+      <c r="G356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A357">
+        <v>300005</v>
+      </c>
+      <c r="B357">
+        <v>212106</v>
+      </c>
+      <c r="C357" t="s">
+        <v>32</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+      <c r="F357">
+        <v>1000</v>
+      </c>
+      <c r="G357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A358">
+        <v>300005</v>
+      </c>
+      <c r="B358">
+        <v>212110</v>
+      </c>
+      <c r="C358" t="s">
+        <v>33</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+      <c r="F358">
+        <v>1000</v>
+      </c>
+      <c r="G358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A359">
+        <v>300005</v>
+      </c>
+      <c r="B359">
+        <v>212114</v>
+      </c>
+      <c r="C359" t="s">
+        <v>34</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+      <c r="E359">
+        <v>1</v>
+      </c>
+      <c r="F359">
+        <v>1000</v>
+      </c>
+      <c r="G359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A360">
+        <v>300005</v>
+      </c>
+      <c r="B360">
+        <v>212118</v>
+      </c>
+      <c r="C360" t="s">
+        <v>35</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+      <c r="E360">
+        <v>1</v>
+      </c>
+      <c r="F360">
+        <v>1000</v>
+      </c>
+      <c r="G360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A361">
+        <v>300005</v>
+      </c>
+      <c r="B361">
+        <v>252122</v>
+      </c>
+      <c r="C361" t="s">
+        <v>36</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361">
+        <v>1</v>
+      </c>
+      <c r="F361">
+        <v>1000</v>
+      </c>
+      <c r="G361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A362">
+        <v>300005</v>
+      </c>
+      <c r="B362">
+        <v>252126</v>
+      </c>
+      <c r="C362" t="s">
+        <v>37</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362">
+        <v>1000</v>
+      </c>
+      <c r="G362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A363">
+        <v>300005</v>
+      </c>
+      <c r="B363">
+        <v>252130</v>
+      </c>
+      <c r="C363" t="s">
+        <v>38</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363">
+        <v>1</v>
+      </c>
+      <c r="F363">
+        <v>1000</v>
+      </c>
+      <c r="G363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A364">
+        <v>300005</v>
+      </c>
+      <c r="B364">
+        <v>252134</v>
+      </c>
+      <c r="C364" t="s">
+        <v>39</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+      <c r="F364">
+        <v>1000</v>
+      </c>
+      <c r="G364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A365">
+        <v>300005</v>
+      </c>
+      <c r="B365">
+        <v>252138</v>
+      </c>
+      <c r="C365" t="s">
+        <v>40</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
+      <c r="F365">
+        <v>1000</v>
+      </c>
+      <c r="G365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A366">
+        <v>300005</v>
+      </c>
+      <c r="B366">
+        <v>252142</v>
+      </c>
+      <c r="C366" t="s">
+        <v>41</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+      <c r="F366">
+        <v>1000</v>
+      </c>
+      <c r="G366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A367">
+        <v>300005</v>
+      </c>
+      <c r="B367">
+        <v>242002</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+      <c r="F367">
+        <v>1000</v>
+      </c>
+      <c r="G367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A368">
+        <v>300005</v>
+      </c>
+      <c r="B368">
+        <v>242006</v>
+      </c>
+      <c r="C368" t="s">
+        <v>7</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+      <c r="F368">
+        <v>1000</v>
+      </c>
+      <c r="G368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A369">
+        <v>300005</v>
+      </c>
+      <c r="B369">
+        <v>242010</v>
+      </c>
+      <c r="C369" t="s">
+        <v>8</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+      <c r="E369">
+        <v>1</v>
+      </c>
+      <c r="F369">
+        <v>1000</v>
+      </c>
+      <c r="G369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A370">
+        <v>300005</v>
+      </c>
+      <c r="B370">
+        <v>242014</v>
+      </c>
+      <c r="C370" t="s">
+        <v>9</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
+      <c r="F370">
+        <v>1000</v>
+      </c>
+      <c r="G370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A371">
+        <v>300005</v>
+      </c>
+      <c r="B371">
+        <v>242018</v>
+      </c>
+      <c r="C371" t="s">
+        <v>10</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+      <c r="E371">
+        <v>1</v>
+      </c>
+      <c r="F371">
+        <v>1000</v>
+      </c>
+      <c r="G371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A372">
+        <v>300005</v>
+      </c>
+      <c r="B372">
+        <v>242022</v>
+      </c>
+      <c r="C372" t="s">
+        <v>11</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372">
+        <v>1</v>
+      </c>
+      <c r="F372">
+        <v>1000</v>
+      </c>
+      <c r="G372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A373">
+        <v>300005</v>
+      </c>
+      <c r="B373">
+        <v>222026</v>
+      </c>
+      <c r="C373" t="s">
+        <v>12</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+      <c r="E373">
+        <v>1</v>
+      </c>
+      <c r="F373">
+        <v>1000</v>
+      </c>
+      <c r="G373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A374">
+        <v>300005</v>
+      </c>
+      <c r="B374">
+        <v>222030</v>
+      </c>
+      <c r="C374" t="s">
+        <v>13</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+      <c r="F374">
+        <v>1000</v>
+      </c>
+      <c r="G374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A375">
+        <v>300005</v>
+      </c>
+      <c r="B375">
+        <v>222034</v>
+      </c>
+      <c r="C375" t="s">
+        <v>14</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
+      <c r="F375">
+        <v>1000</v>
+      </c>
+      <c r="G375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A376">
+        <v>300005</v>
+      </c>
+      <c r="B376">
+        <v>222038</v>
+      </c>
+      <c r="C376" t="s">
+        <v>15</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+      <c r="F376">
+        <v>1000</v>
+      </c>
+      <c r="G376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A377">
+        <v>300005</v>
+      </c>
+      <c r="B377">
+        <v>222042</v>
+      </c>
+      <c r="C377" t="s">
+        <v>16</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+      <c r="E377">
+        <v>1</v>
+      </c>
+      <c r="F377">
+        <v>1000</v>
+      </c>
+      <c r="G377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A378">
+        <v>300005</v>
+      </c>
+      <c r="B378">
+        <v>222046</v>
+      </c>
+      <c r="C378" t="s">
+        <v>17</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+      <c r="E378">
+        <v>1</v>
+      </c>
+      <c r="F378">
+        <v>1000</v>
+      </c>
+      <c r="G378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A379">
+        <v>300005</v>
+      </c>
+      <c r="B379">
+        <v>232050</v>
+      </c>
+      <c r="C379" t="s">
+        <v>18</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+      <c r="E379">
+        <v>1</v>
+      </c>
+      <c r="F379">
+        <v>1000</v>
+      </c>
+      <c r="G379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A380">
+        <v>300005</v>
+      </c>
+      <c r="B380">
+        <v>232054</v>
+      </c>
+      <c r="C380" t="s">
+        <v>19</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380">
+        <v>1</v>
+      </c>
+      <c r="F380">
+        <v>1000</v>
+      </c>
+      <c r="G380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A381">
+        <v>300005</v>
+      </c>
+      <c r="B381">
+        <v>232058</v>
+      </c>
+      <c r="C381" t="s">
+        <v>20</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381">
+        <v>1</v>
+      </c>
+      <c r="F381">
+        <v>1000</v>
+      </c>
+      <c r="G381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A382">
+        <v>300005</v>
+      </c>
+      <c r="B382">
+        <v>232062</v>
+      </c>
+      <c r="C382" t="s">
+        <v>21</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+      <c r="E382">
+        <v>1</v>
+      </c>
+      <c r="F382">
+        <v>1000</v>
+      </c>
+      <c r="G382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A383">
+        <v>300005</v>
+      </c>
+      <c r="B383">
+        <v>232066</v>
+      </c>
+      <c r="C383" t="s">
+        <v>22</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383">
+        <v>1</v>
+      </c>
+      <c r="F383">
+        <v>1000</v>
+      </c>
+      <c r="G383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A384">
+        <v>300005</v>
+      </c>
+      <c r="B384">
+        <v>232070</v>
+      </c>
+      <c r="C384" t="s">
+        <v>23</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
+      <c r="F384">
+        <v>1000</v>
+      </c>
+      <c r="G384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A385">
+        <v>300005</v>
+      </c>
+      <c r="B385">
+        <v>262074</v>
+      </c>
+      <c r="C385" t="s">
+        <v>24</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+      <c r="F385">
+        <v>1000</v>
+      </c>
+      <c r="G385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A386">
+        <v>300005</v>
+      </c>
+      <c r="B386">
+        <v>262078</v>
+      </c>
+      <c r="C386" t="s">
+        <v>25</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+      <c r="F386">
+        <v>1000</v>
+      </c>
+      <c r="G386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A387">
+        <v>300005</v>
+      </c>
+      <c r="B387">
+        <v>262082</v>
+      </c>
+      <c r="C387" t="s">
+        <v>26</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
+      <c r="F387">
+        <v>1000</v>
+      </c>
+      <c r="G387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A388">
+        <v>300005</v>
+      </c>
+      <c r="B388">
+        <v>262086</v>
+      </c>
+      <c r="C388" t="s">
+        <v>27</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+      <c r="F388">
+        <v>1000</v>
+      </c>
+      <c r="G388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A389">
+        <v>300005</v>
+      </c>
+      <c r="B389">
+        <v>262090</v>
+      </c>
+      <c r="C389" t="s">
+        <v>28</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+      <c r="F389">
+        <v>1000</v>
+      </c>
+      <c r="G389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A390">
+        <v>300005</v>
+      </c>
+      <c r="B390">
+        <v>262094</v>
+      </c>
+      <c r="C390" t="s">
+        <v>29</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+      <c r="E390">
+        <v>1</v>
+      </c>
+      <c r="F390">
+        <v>1000</v>
+      </c>
+      <c r="G390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A391">
+        <v>300005</v>
+      </c>
+      <c r="B391">
+        <v>212098</v>
+      </c>
+      <c r="C391" t="s">
+        <v>30</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+      <c r="E391">
+        <v>1</v>
+      </c>
+      <c r="F391">
+        <v>1000</v>
+      </c>
+      <c r="G391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A392">
+        <v>300005</v>
+      </c>
+      <c r="B392">
+        <v>212102</v>
+      </c>
+      <c r="C392" t="s">
+        <v>31</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
+      <c r="F392">
+        <v>1000</v>
+      </c>
+      <c r="G392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A393">
+        <v>300005</v>
+      </c>
+      <c r="B393">
+        <v>212106</v>
+      </c>
+      <c r="C393" t="s">
+        <v>32</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="E393">
+        <v>1</v>
+      </c>
+      <c r="F393">
+        <v>1000</v>
+      </c>
+      <c r="G393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A394">
+        <v>300005</v>
+      </c>
+      <c r="B394">
+        <v>212110</v>
+      </c>
+      <c r="C394" t="s">
+        <v>33</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <v>1</v>
+      </c>
+      <c r="F394">
+        <v>1000</v>
+      </c>
+      <c r="G394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A395">
+        <v>300005</v>
+      </c>
+      <c r="B395">
+        <v>212114</v>
+      </c>
+      <c r="C395" t="s">
+        <v>34</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <v>1</v>
+      </c>
+      <c r="F395">
+        <v>1000</v>
+      </c>
+      <c r="G395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A396">
+        <v>300005</v>
+      </c>
+      <c r="B396">
+        <v>212118</v>
+      </c>
+      <c r="C396" t="s">
+        <v>35</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+      <c r="E396">
+        <v>1</v>
+      </c>
+      <c r="F396">
+        <v>1000</v>
+      </c>
+      <c r="G396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A397">
+        <v>300005</v>
+      </c>
+      <c r="B397">
+        <v>252122</v>
+      </c>
+      <c r="C397" t="s">
+        <v>36</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+      <c r="E397">
+        <v>1</v>
+      </c>
+      <c r="F397">
+        <v>1000</v>
+      </c>
+      <c r="G397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A398">
+        <v>300005</v>
+      </c>
+      <c r="B398">
+        <v>252126</v>
+      </c>
+      <c r="C398" t="s">
+        <v>37</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
+      <c r="F398">
+        <v>1000</v>
+      </c>
+      <c r="G398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A399">
+        <v>300005</v>
+      </c>
+      <c r="B399">
+        <v>252130</v>
+      </c>
+      <c r="C399" t="s">
+        <v>38</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+      <c r="E399">
+        <v>1</v>
+      </c>
+      <c r="F399">
+        <v>1000</v>
+      </c>
+      <c r="G399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A400">
+        <v>300005</v>
+      </c>
+      <c r="B400">
+        <v>252134</v>
+      </c>
+      <c r="C400" t="s">
+        <v>39</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+      <c r="E400">
+        <v>1</v>
+      </c>
+      <c r="F400">
+        <v>1000</v>
+      </c>
+      <c r="G400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A401">
+        <v>300005</v>
+      </c>
+      <c r="B401">
+        <v>252138</v>
+      </c>
+      <c r="C401" t="s">
+        <v>40</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+      <c r="E401">
+        <v>1</v>
+      </c>
+      <c r="F401">
+        <v>1000</v>
+      </c>
+      <c r="G401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A402">
+        <v>300005</v>
+      </c>
+      <c r="B402">
+        <v>252142</v>
+      </c>
+      <c r="C402" t="s">
+        <v>41</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+      <c r="E402">
+        <v>1</v>
+      </c>
+      <c r="F402">
+        <v>1000</v>
+      </c>
+      <c r="G402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A403">
+        <v>300006</v>
+      </c>
+      <c r="B403">
+        <v>243003</v>
+      </c>
+      <c r="C403" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+      <c r="E403">
+        <v>1</v>
+      </c>
+      <c r="F403">
+        <v>1000</v>
+      </c>
+      <c r="G403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A404">
+        <v>300006</v>
+      </c>
+      <c r="B404">
+        <v>243007</v>
+      </c>
+      <c r="C404" t="s">
+        <v>7</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+      <c r="E404">
+        <v>1</v>
+      </c>
+      <c r="F404">
+        <v>1000</v>
+      </c>
+      <c r="G404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A405">
+        <v>300006</v>
+      </c>
+      <c r="B405">
+        <v>243011</v>
+      </c>
+      <c r="C405" t="s">
+        <v>8</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+      <c r="E405">
+        <v>1</v>
+      </c>
+      <c r="F405">
+        <v>1000</v>
+      </c>
+      <c r="G405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A406">
+        <v>300006</v>
+      </c>
+      <c r="B406">
+        <v>243015</v>
+      </c>
+      <c r="C406" t="s">
+        <v>9</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
+      </c>
+      <c r="E406">
+        <v>1</v>
+      </c>
+      <c r="F406">
+        <v>1000</v>
+      </c>
+      <c r="G406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A407">
+        <v>300006</v>
+      </c>
+      <c r="B407">
+        <v>243019</v>
+      </c>
+      <c r="C407" t="s">
+        <v>10</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+      <c r="F407">
+        <v>1000</v>
+      </c>
+      <c r="G407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A408">
+        <v>300006</v>
+      </c>
+      <c r="B408">
+        <v>243023</v>
+      </c>
+      <c r="C408" t="s">
+        <v>11</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+      <c r="F408">
+        <v>1000</v>
+      </c>
+      <c r="G408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A409">
+        <v>300006</v>
+      </c>
+      <c r="B409">
+        <v>223027</v>
+      </c>
+      <c r="C409" t="s">
+        <v>12</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409">
+        <v>1</v>
+      </c>
+      <c r="F409">
+        <v>1000</v>
+      </c>
+      <c r="G409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A410">
+        <v>300006</v>
+      </c>
+      <c r="B410">
+        <v>223031</v>
+      </c>
+      <c r="C410" t="s">
+        <v>13</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
+      <c r="F410">
+        <v>1000</v>
+      </c>
+      <c r="G410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A411">
+        <v>300006</v>
+      </c>
+      <c r="B411">
+        <v>223035</v>
+      </c>
+      <c r="C411" t="s">
+        <v>14</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+      <c r="E411">
+        <v>1</v>
+      </c>
+      <c r="F411">
+        <v>1000</v>
+      </c>
+      <c r="G411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A412">
+        <v>300006</v>
+      </c>
+      <c r="B412">
+        <v>223039</v>
+      </c>
+      <c r="C412" t="s">
+        <v>15</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+      <c r="E412">
+        <v>1</v>
+      </c>
+      <c r="F412">
+        <v>1000</v>
+      </c>
+      <c r="G412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A413">
+        <v>300006</v>
+      </c>
+      <c r="B413">
+        <v>223043</v>
+      </c>
+      <c r="C413" t="s">
+        <v>16</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="E413">
+        <v>1</v>
+      </c>
+      <c r="F413">
+        <v>1000</v>
+      </c>
+      <c r="G413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A414">
+        <v>300006</v>
+      </c>
+      <c r="B414">
+        <v>223047</v>
+      </c>
+      <c r="C414" t="s">
+        <v>17</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+      <c r="E414">
+        <v>1</v>
+      </c>
+      <c r="F414">
+        <v>1000</v>
+      </c>
+      <c r="G414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A415">
+        <v>300006</v>
+      </c>
+      <c r="B415">
+        <v>233051</v>
+      </c>
+      <c r="C415" t="s">
+        <v>18</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+      <c r="E415">
+        <v>1</v>
+      </c>
+      <c r="F415">
+        <v>1000</v>
+      </c>
+      <c r="G415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A416">
+        <v>300006</v>
+      </c>
+      <c r="B416">
+        <v>233055</v>
+      </c>
+      <c r="C416" t="s">
+        <v>19</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+      <c r="F416">
+        <v>1000</v>
+      </c>
+      <c r="G416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A417">
+        <v>300006</v>
+      </c>
+      <c r="B417">
+        <v>233059</v>
+      </c>
+      <c r="C417" t="s">
+        <v>20</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+      <c r="E417">
+        <v>1</v>
+      </c>
+      <c r="F417">
+        <v>1000</v>
+      </c>
+      <c r="G417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A418">
+        <v>300006</v>
+      </c>
+      <c r="B418">
+        <v>233063</v>
+      </c>
+      <c r="C418" t="s">
+        <v>21</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+      <c r="E418">
+        <v>1</v>
+      </c>
+      <c r="F418">
+        <v>1000</v>
+      </c>
+      <c r="G418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A419">
+        <v>300006</v>
+      </c>
+      <c r="B419">
+        <v>233067</v>
+      </c>
+      <c r="C419" t="s">
+        <v>22</v>
+      </c>
+      <c r="D419">
+        <v>1</v>
+      </c>
+      <c r="E419">
+        <v>1</v>
+      </c>
+      <c r="F419">
+        <v>1000</v>
+      </c>
+      <c r="G419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A420">
+        <v>300006</v>
+      </c>
+      <c r="B420">
+        <v>233071</v>
+      </c>
+      <c r="C420" t="s">
+        <v>23</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+      <c r="E420">
+        <v>1</v>
+      </c>
+      <c r="F420">
+        <v>1000</v>
+      </c>
+      <c r="G420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A421">
+        <v>300006</v>
+      </c>
+      <c r="B421">
+        <v>263075</v>
+      </c>
+      <c r="C421" t="s">
+        <v>24</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+      <c r="E421">
+        <v>1</v>
+      </c>
+      <c r="F421">
+        <v>1000</v>
+      </c>
+      <c r="G421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A422">
+        <v>300006</v>
+      </c>
+      <c r="B422">
+        <v>263079</v>
+      </c>
+      <c r="C422" t="s">
+        <v>25</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+      <c r="E422">
+        <v>1</v>
+      </c>
+      <c r="F422">
+        <v>1000</v>
+      </c>
+      <c r="G422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A423">
+        <v>300006</v>
+      </c>
+      <c r="B423">
+        <v>263083</v>
+      </c>
+      <c r="C423" t="s">
+        <v>26</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+      <c r="E423">
+        <v>1</v>
+      </c>
+      <c r="F423">
+        <v>1000</v>
+      </c>
+      <c r="G423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A424">
+        <v>300006</v>
+      </c>
+      <c r="B424">
+        <v>263087</v>
+      </c>
+      <c r="C424" t="s">
+        <v>27</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+      <c r="E424">
+        <v>1</v>
+      </c>
+      <c r="F424">
+        <v>1000</v>
+      </c>
+      <c r="G424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A425">
+        <v>300006</v>
+      </c>
+      <c r="B425">
+        <v>263091</v>
+      </c>
+      <c r="C425" t="s">
+        <v>28</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+      <c r="E425">
+        <v>1</v>
+      </c>
+      <c r="F425">
+        <v>1000</v>
+      </c>
+      <c r="G425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A426">
+        <v>300006</v>
+      </c>
+      <c r="B426">
+        <v>263095</v>
+      </c>
+      <c r="C426" t="s">
+        <v>29</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
+      <c r="E426">
+        <v>1</v>
+      </c>
+      <c r="F426">
+        <v>1000</v>
+      </c>
+      <c r="G426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A427">
+        <v>300006</v>
+      </c>
+      <c r="B427">
+        <v>213099</v>
+      </c>
+      <c r="C427" t="s">
+        <v>30</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+      <c r="E427">
+        <v>1</v>
+      </c>
+      <c r="F427">
+        <v>1000</v>
+      </c>
+      <c r="G427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A428">
+        <v>300006</v>
+      </c>
+      <c r="B428">
+        <v>213103</v>
+      </c>
+      <c r="C428" t="s">
+        <v>31</v>
+      </c>
+      <c r="D428">
+        <v>1</v>
+      </c>
+      <c r="E428">
+        <v>1</v>
+      </c>
+      <c r="F428">
+        <v>1000</v>
+      </c>
+      <c r="G428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A429">
+        <v>300006</v>
+      </c>
+      <c r="B429">
+        <v>213107</v>
+      </c>
+      <c r="C429" t="s">
+        <v>32</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+      <c r="E429">
+        <v>1</v>
+      </c>
+      <c r="F429">
+        <v>1000</v>
+      </c>
+      <c r="G429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A430">
+        <v>300006</v>
+      </c>
+      <c r="B430">
+        <v>213111</v>
+      </c>
+      <c r="C430" t="s">
+        <v>33</v>
+      </c>
+      <c r="D430">
+        <v>1</v>
+      </c>
+      <c r="E430">
+        <v>1</v>
+      </c>
+      <c r="F430">
+        <v>1000</v>
+      </c>
+      <c r="G430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A431">
+        <v>300006</v>
+      </c>
+      <c r="B431">
+        <v>213115</v>
+      </c>
+      <c r="C431" t="s">
+        <v>34</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+      <c r="E431">
+        <v>1</v>
+      </c>
+      <c r="F431">
+        <v>1000</v>
+      </c>
+      <c r="G431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A432">
+        <v>300006</v>
+      </c>
+      <c r="B432">
+        <v>213119</v>
+      </c>
+      <c r="C432" t="s">
+        <v>35</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+      <c r="E432">
+        <v>1</v>
+      </c>
+      <c r="F432">
+        <v>1000</v>
+      </c>
+      <c r="G432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A433">
+        <v>300006</v>
+      </c>
+      <c r="B433">
+        <v>253123</v>
+      </c>
+      <c r="C433" t="s">
+        <v>36</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="E433">
+        <v>1</v>
+      </c>
+      <c r="F433">
+        <v>1000</v>
+      </c>
+      <c r="G433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A434">
+        <v>300006</v>
+      </c>
+      <c r="B434">
+        <v>253127</v>
+      </c>
+      <c r="C434" t="s">
+        <v>37</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="E434">
+        <v>1</v>
+      </c>
+      <c r="F434">
+        <v>1000</v>
+      </c>
+      <c r="G434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A435">
+        <v>300006</v>
+      </c>
+      <c r="B435">
+        <v>253131</v>
+      </c>
+      <c r="C435" t="s">
+        <v>38</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435">
+        <v>1</v>
+      </c>
+      <c r="F435">
+        <v>1000</v>
+      </c>
+      <c r="G435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A436">
+        <v>300006</v>
+      </c>
+      <c r="B436">
+        <v>253135</v>
+      </c>
+      <c r="C436" t="s">
+        <v>39</v>
+      </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+      <c r="E436">
+        <v>1</v>
+      </c>
+      <c r="F436">
+        <v>1000</v>
+      </c>
+      <c r="G436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A437">
+        <v>300006</v>
+      </c>
+      <c r="B437">
+        <v>253139</v>
+      </c>
+      <c r="C437" t="s">
+        <v>40</v>
+      </c>
+      <c r="D437">
+        <v>1</v>
+      </c>
+      <c r="E437">
+        <v>1</v>
+      </c>
+      <c r="F437">
+        <v>1000</v>
+      </c>
+      <c r="G437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A438">
+        <v>300006</v>
+      </c>
+      <c r="B438">
+        <v>253143</v>
+      </c>
+      <c r="C438" t="s">
+        <v>41</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+      <c r="E438">
+        <v>1</v>
+      </c>
+      <c r="F438">
+        <v>1000</v>
+      </c>
+      <c r="G438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A439">
+        <v>300006</v>
+      </c>
+      <c r="B439">
+        <v>244004</v>
+      </c>
+      <c r="C439" t="s">
+        <v>6</v>
+      </c>
+      <c r="D439">
+        <v>1</v>
+      </c>
+      <c r="E439">
+        <v>1</v>
+      </c>
+      <c r="F439">
+        <v>1000</v>
+      </c>
+      <c r="G439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A440">
+        <v>300006</v>
+      </c>
+      <c r="B440">
+        <v>244008</v>
+      </c>
+      <c r="C440" t="s">
+        <v>7</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="E440">
+        <v>1</v>
+      </c>
+      <c r="F440">
+        <v>1000</v>
+      </c>
+      <c r="G440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A441">
+        <v>300006</v>
+      </c>
+      <c r="B441">
+        <v>244012</v>
+      </c>
+      <c r="C441" t="s">
+        <v>8</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+      <c r="E441">
+        <v>1</v>
+      </c>
+      <c r="F441">
+        <v>1000</v>
+      </c>
+      <c r="G441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A442">
+        <v>300006</v>
+      </c>
+      <c r="B442">
+        <v>244016</v>
+      </c>
+      <c r="C442" t="s">
+        <v>9</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+      <c r="E442">
+        <v>1</v>
+      </c>
+      <c r="F442">
+        <v>1000</v>
+      </c>
+      <c r="G442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A443">
+        <v>300006</v>
+      </c>
+      <c r="B443">
+        <v>244020</v>
+      </c>
+      <c r="C443" t="s">
+        <v>10</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+      <c r="E443">
+        <v>1</v>
+      </c>
+      <c r="F443">
+        <v>1000</v>
+      </c>
+      <c r="G443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A444">
+        <v>300006</v>
+      </c>
+      <c r="B444">
+        <v>244024</v>
+      </c>
+      <c r="C444" t="s">
+        <v>11</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+      <c r="E444">
+        <v>1</v>
+      </c>
+      <c r="F444">
+        <v>1000</v>
+      </c>
+      <c r="G444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A445">
+        <v>300006</v>
+      </c>
+      <c r="B445">
+        <v>224028</v>
+      </c>
+      <c r="C445" t="s">
+        <v>12</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="E445">
+        <v>1</v>
+      </c>
+      <c r="F445">
+        <v>1000</v>
+      </c>
+      <c r="G445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A446">
+        <v>300006</v>
+      </c>
+      <c r="B446">
+        <v>224032</v>
+      </c>
+      <c r="C446" t="s">
+        <v>13</v>
+      </c>
+      <c r="D446">
+        <v>1</v>
+      </c>
+      <c r="E446">
+        <v>1</v>
+      </c>
+      <c r="F446">
+        <v>1000</v>
+      </c>
+      <c r="G446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A447">
+        <v>300006</v>
+      </c>
+      <c r="B447">
+        <v>224036</v>
+      </c>
+      <c r="C447" t="s">
+        <v>14</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="E447">
+        <v>1</v>
+      </c>
+      <c r="F447">
+        <v>1000</v>
+      </c>
+      <c r="G447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A448">
+        <v>300006</v>
+      </c>
+      <c r="B448">
+        <v>224040</v>
+      </c>
+      <c r="C448" t="s">
+        <v>15</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+      <c r="E448">
+        <v>1</v>
+      </c>
+      <c r="F448">
+        <v>1000</v>
+      </c>
+      <c r="G448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A449">
+        <v>300006</v>
+      </c>
+      <c r="B449">
+        <v>224044</v>
+      </c>
+      <c r="C449" t="s">
+        <v>16</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+      <c r="E449">
+        <v>1</v>
+      </c>
+      <c r="F449">
+        <v>1000</v>
+      </c>
+      <c r="G449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A450">
+        <v>300006</v>
+      </c>
+      <c r="B450">
+        <v>224048</v>
+      </c>
+      <c r="C450" t="s">
+        <v>17</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+      <c r="E450">
+        <v>1</v>
+      </c>
+      <c r="F450">
+        <v>1000</v>
+      </c>
+      <c r="G450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A451">
+        <v>300006</v>
+      </c>
+      <c r="B451">
+        <v>234052</v>
+      </c>
+      <c r="C451" t="s">
+        <v>18</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+      <c r="E451">
+        <v>1</v>
+      </c>
+      <c r="F451">
+        <v>1000</v>
+      </c>
+      <c r="G451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A452">
+        <v>300006</v>
+      </c>
+      <c r="B452">
+        <v>234056</v>
+      </c>
+      <c r="C452" t="s">
+        <v>19</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
+      <c r="E452">
+        <v>1</v>
+      </c>
+      <c r="F452">
+        <v>1000</v>
+      </c>
+      <c r="G452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A453">
+        <v>300006</v>
+      </c>
+      <c r="B453">
+        <v>234060</v>
+      </c>
+      <c r="C453" t="s">
+        <v>20</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+      <c r="E453">
+        <v>1</v>
+      </c>
+      <c r="F453">
+        <v>1000</v>
+      </c>
+      <c r="G453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A454">
+        <v>300006</v>
+      </c>
+      <c r="B454">
+        <v>234064</v>
+      </c>
+      <c r="C454" t="s">
+        <v>21</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="E454">
+        <v>1</v>
+      </c>
+      <c r="F454">
+        <v>1000</v>
+      </c>
+      <c r="G454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A455">
+        <v>300006</v>
+      </c>
+      <c r="B455">
+        <v>234068</v>
+      </c>
+      <c r="C455" t="s">
+        <v>22</v>
+      </c>
+      <c r="D455">
+        <v>1</v>
+      </c>
+      <c r="E455">
+        <v>1</v>
+      </c>
+      <c r="F455">
+        <v>1000</v>
+      </c>
+      <c r="G455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A456">
+        <v>300006</v>
+      </c>
+      <c r="B456">
+        <v>234072</v>
+      </c>
+      <c r="C456" t="s">
+        <v>23</v>
+      </c>
+      <c r="D456">
+        <v>1</v>
+      </c>
+      <c r="E456">
+        <v>1</v>
+      </c>
+      <c r="F456">
+        <v>1000</v>
+      </c>
+      <c r="G456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A457">
+        <v>300006</v>
+      </c>
+      <c r="B457">
+        <v>264076</v>
+      </c>
+      <c r="C457" t="s">
+        <v>24</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+      <c r="E457">
+        <v>1</v>
+      </c>
+      <c r="F457">
+        <v>1000</v>
+      </c>
+      <c r="G457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A458">
+        <v>300006</v>
+      </c>
+      <c r="B458">
+        <v>264080</v>
+      </c>
+      <c r="C458" t="s">
+        <v>25</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+      <c r="E458">
+        <v>1</v>
+      </c>
+      <c r="F458">
+        <v>1000</v>
+      </c>
+      <c r="G458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A459">
+        <v>300006</v>
+      </c>
+      <c r="B459">
+        <v>264084</v>
+      </c>
+      <c r="C459" t="s">
+        <v>26</v>
+      </c>
+      <c r="D459">
+        <v>1</v>
+      </c>
+      <c r="E459">
+        <v>1</v>
+      </c>
+      <c r="F459">
+        <v>1000</v>
+      </c>
+      <c r="G459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A460">
+        <v>300006</v>
+      </c>
+      <c r="B460">
+        <v>264088</v>
+      </c>
+      <c r="C460" t="s">
+        <v>27</v>
+      </c>
+      <c r="D460">
+        <v>1</v>
+      </c>
+      <c r="E460">
+        <v>1</v>
+      </c>
+      <c r="F460">
+        <v>1000</v>
+      </c>
+      <c r="G460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A461">
+        <v>300006</v>
+      </c>
+      <c r="B461">
+        <v>264092</v>
+      </c>
+      <c r="C461" t="s">
+        <v>28</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+      <c r="E461">
+        <v>1</v>
+      </c>
+      <c r="F461">
+        <v>1000</v>
+      </c>
+      <c r="G461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A462">
+        <v>300006</v>
+      </c>
+      <c r="B462">
+        <v>264096</v>
+      </c>
+      <c r="C462" t="s">
+        <v>29</v>
+      </c>
+      <c r="D462">
+        <v>1</v>
+      </c>
+      <c r="E462">
+        <v>1</v>
+      </c>
+      <c r="F462">
+        <v>1000</v>
+      </c>
+      <c r="G462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A463">
+        <v>300006</v>
+      </c>
+      <c r="B463">
+        <v>214100</v>
+      </c>
+      <c r="C463" t="s">
+        <v>30</v>
+      </c>
+      <c r="D463">
+        <v>1</v>
+      </c>
+      <c r="E463">
+        <v>1</v>
+      </c>
+      <c r="F463">
+        <v>1000</v>
+      </c>
+      <c r="G463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A464">
+        <v>300006</v>
+      </c>
+      <c r="B464">
+        <v>214104</v>
+      </c>
+      <c r="C464" t="s">
+        <v>31</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+      <c r="E464">
+        <v>1</v>
+      </c>
+      <c r="F464">
+        <v>1000</v>
+      </c>
+      <c r="G464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A465">
+        <v>300006</v>
+      </c>
+      <c r="B465">
+        <v>214108</v>
+      </c>
+      <c r="C465" t="s">
+        <v>32</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+      <c r="E465">
+        <v>1</v>
+      </c>
+      <c r="F465">
+        <v>1000</v>
+      </c>
+      <c r="G465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A466">
+        <v>300006</v>
+      </c>
+      <c r="B466">
+        <v>214112</v>
+      </c>
+      <c r="C466" t="s">
+        <v>33</v>
+      </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+      <c r="E466">
+        <v>1</v>
+      </c>
+      <c r="F466">
+        <v>1000</v>
+      </c>
+      <c r="G466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A467">
+        <v>300006</v>
+      </c>
+      <c r="B467">
+        <v>214116</v>
+      </c>
+      <c r="C467" t="s">
+        <v>34</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467">
+        <v>1</v>
+      </c>
+      <c r="F467">
+        <v>1000</v>
+      </c>
+      <c r="G467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A468">
+        <v>300006</v>
+      </c>
+      <c r="B468">
+        <v>214120</v>
+      </c>
+      <c r="C468" t="s">
+        <v>35</v>
+      </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+      <c r="E468">
+        <v>1</v>
+      </c>
+      <c r="F468">
+        <v>1000</v>
+      </c>
+      <c r="G468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A469">
+        <v>300006</v>
+      </c>
+      <c r="B469">
+        <v>254128</v>
+      </c>
+      <c r="C469" t="s">
+        <v>37</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469">
+        <v>1</v>
+      </c>
+      <c r="F469">
+        <v>1000</v>
+      </c>
+      <c r="G469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A470">
+        <v>300006</v>
+      </c>
+      <c r="B470">
+        <v>254132</v>
+      </c>
+      <c r="C470" t="s">
+        <v>38</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+      <c r="E470">
+        <v>1</v>
+      </c>
+      <c r="F470">
+        <v>1000</v>
+      </c>
+      <c r="G470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A471">
+        <v>300006</v>
+      </c>
+      <c r="B471">
+        <v>254136</v>
+      </c>
+      <c r="C471" t="s">
+        <v>39</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+      <c r="E471">
+        <v>1</v>
+      </c>
+      <c r="F471">
+        <v>1000</v>
+      </c>
+      <c r="G471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A472">
+        <v>300006</v>
+      </c>
+      <c r="B472">
+        <v>254140</v>
+      </c>
+      <c r="C472" t="s">
+        <v>40</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+      <c r="E472">
+        <v>1</v>
+      </c>
+      <c r="F472">
+        <v>1000</v>
+      </c>
+      <c r="G472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A473">
+        <v>300006</v>
+      </c>
+      <c r="B473">
+        <v>254144</v>
+      </c>
+      <c r="C473" t="s">
+        <v>41</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="E473">
+        <v>1</v>
+      </c>
+      <c r="F473">
+        <v>1000</v>
+      </c>
+      <c r="G473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A474">
+        <v>300007</v>
+      </c>
+      <c r="B474">
+        <v>234065</v>
+      </c>
+      <c r="C474" t="s">
+        <v>21</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
+      </c>
+      <c r="E474">
+        <v>1</v>
+      </c>
+      <c r="F474">
         <v>10000</v>
       </c>
-      <c r="G310">
+      <c r="G474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A475">
+        <v>2000001</v>
+      </c>
+      <c r="B475">
+        <v>3000001</v>
+      </c>
+      <c r="C475" t="s">
+        <v>42</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+      <c r="E475">
+        <v>1</v>
+      </c>
+      <c r="F475">
+        <v>10000</v>
+      </c>
+      <c r="G475">
+        <v>1</v>
+      </c>
+      <c r="Q475" s="2"/>
+    </row>
+    <row r="476" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A476">
+        <v>2000002</v>
+      </c>
+      <c r="B476">
+        <v>3000002</v>
+      </c>
+      <c r="C476" t="s">
+        <v>43</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+      <c r="E476">
+        <v>1</v>
+      </c>
+      <c r="F476">
+        <v>10000</v>
+      </c>
+      <c r="G476">
+        <v>1</v>
+      </c>
+      <c r="Q476" s="2"/>
+    </row>
+    <row r="477" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A477">
+        <v>2000003</v>
+      </c>
+      <c r="B477">
+        <v>3000003</v>
+      </c>
+      <c r="C477" t="s">
+        <v>44</v>
+      </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+      <c r="E477">
+        <v>1</v>
+      </c>
+      <c r="F477">
+        <v>10000</v>
+      </c>
+      <c r="G477">
+        <v>1</v>
+      </c>
+      <c r="Q477" s="2"/>
+    </row>
+    <row r="478" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A478">
+        <v>2000004</v>
+      </c>
+      <c r="B478">
+        <v>3000004</v>
+      </c>
+      <c r="C478" t="s">
+        <v>45</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+      <c r="E478">
+        <v>1</v>
+      </c>
+      <c r="F478">
+        <v>10000</v>
+      </c>
+      <c r="G478">
+        <v>1</v>
+      </c>
+      <c r="Q478" s="2"/>
+    </row>
+    <row r="479" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A479">
+        <v>2000005</v>
+      </c>
+      <c r="B479">
+        <v>3000005</v>
+      </c>
+      <c r="C479" t="s">
+        <v>46</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+      <c r="E479">
+        <v>1</v>
+      </c>
+      <c r="F479">
+        <v>10000</v>
+      </c>
+      <c r="G479">
+        <v>1</v>
+      </c>
+      <c r="Q479" s="2"/>
+    </row>
+    <row r="480" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A480">
+        <v>2000006</v>
+      </c>
+      <c r="B480">
+        <v>3000006</v>
+      </c>
+      <c r="C480" t="s">
+        <v>47</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+      <c r="E480">
+        <v>1</v>
+      </c>
+      <c r="F480">
+        <v>10000</v>
+      </c>
+      <c r="G480">
+        <v>1</v>
+      </c>
+      <c r="Q480" s="2"/>
+    </row>
+    <row r="481" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A481">
+        <v>2000007</v>
+      </c>
+      <c r="B481">
+        <v>3000007</v>
+      </c>
+      <c r="C481" t="s">
+        <v>48</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+      <c r="E481">
+        <v>1</v>
+      </c>
+      <c r="F481">
+        <v>10000</v>
+      </c>
+      <c r="G481">
+        <v>1</v>
+      </c>
+      <c r="Q481" s="2"/>
+    </row>
+    <row r="482" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A482">
+        <v>2000008</v>
+      </c>
+      <c r="B482">
+        <v>3000008</v>
+      </c>
+      <c r="C482" t="s">
+        <v>49</v>
+      </c>
+      <c r="D482">
+        <v>1</v>
+      </c>
+      <c r="E482">
+        <v>1</v>
+      </c>
+      <c r="F482">
+        <v>10000</v>
+      </c>
+      <c r="G482">
+        <v>1</v>
+      </c>
+      <c r="Q482" s="2"/>
+    </row>
+    <row r="483" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A483">
+        <v>2000009</v>
+      </c>
+      <c r="B483">
+        <v>3000009</v>
+      </c>
+      <c r="C483" t="s">
+        <v>50</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+      <c r="E483">
+        <v>1</v>
+      </c>
+      <c r="F483">
+        <v>10000</v>
+      </c>
+      <c r="G483">
+        <v>1</v>
+      </c>
+      <c r="Q483" s="2"/>
+    </row>
+    <row r="484" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A484">
+        <v>2000010</v>
+      </c>
+      <c r="B484">
+        <v>3000010</v>
+      </c>
+      <c r="C484" t="s">
+        <v>51</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+      <c r="E484">
+        <v>1</v>
+      </c>
+      <c r="F484">
+        <v>10000</v>
+      </c>
+      <c r="G484">
+        <v>1</v>
+      </c>
+      <c r="Q484" s="2"/>
+    </row>
+    <row r="485" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A485">
+        <v>2000011</v>
+      </c>
+      <c r="B485">
+        <v>3000011</v>
+      </c>
+      <c r="C485" t="s">
+        <v>52</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+      <c r="E485">
+        <v>1</v>
+      </c>
+      <c r="F485">
+        <v>10000</v>
+      </c>
+      <c r="G485">
+        <v>1</v>
+      </c>
+      <c r="Q485" s="2"/>
+    </row>
+    <row r="486" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A486">
+        <v>2000012</v>
+      </c>
+      <c r="B486">
+        <v>3000012</v>
+      </c>
+      <c r="C486" t="s">
+        <v>53</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+      <c r="E486">
+        <v>1</v>
+      </c>
+      <c r="F486">
+        <v>10000</v>
+      </c>
+      <c r="G486">
+        <v>1</v>
+      </c>
+      <c r="Q486" s="2"/>
+    </row>
+    <row r="487" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A487">
+        <v>2000013</v>
+      </c>
+      <c r="B487">
+        <v>3000013</v>
+      </c>
+      <c r="C487" t="s">
+        <v>54</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487">
+        <v>1</v>
+      </c>
+      <c r="F487">
+        <v>10000</v>
+      </c>
+      <c r="G487">
+        <v>1</v>
+      </c>
+      <c r="Q487" s="2"/>
+    </row>
+    <row r="488" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A488">
+        <v>2000014</v>
+      </c>
+      <c r="B488">
+        <v>3000014</v>
+      </c>
+      <c r="C488" t="s">
+        <v>55</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="E488">
+        <v>1</v>
+      </c>
+      <c r="F488">
+        <v>10000</v>
+      </c>
+      <c r="G488">
+        <v>1</v>
+      </c>
+      <c r="Q488" s="2"/>
+    </row>
+    <row r="489" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A489">
+        <v>2000015</v>
+      </c>
+      <c r="B489">
+        <v>3000001</v>
+      </c>
+      <c r="C489" t="s">
+        <v>42</v>
+      </c>
+      <c r="D489">
+        <v>1</v>
+      </c>
+      <c r="E489">
+        <v>1</v>
+      </c>
+      <c r="F489">
+        <v>1000</v>
+      </c>
+      <c r="G489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A490">
+        <v>2000015</v>
+      </c>
+      <c r="B490">
+        <v>3000012</v>
+      </c>
+      <c r="C490" t="s">
+        <v>53</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+      <c r="E490">
+        <v>1</v>
+      </c>
+      <c r="F490">
+        <v>1000</v>
+      </c>
+      <c r="G490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A491">
+        <v>2000015</v>
+      </c>
+      <c r="B491">
+        <v>3000003</v>
+      </c>
+      <c r="C491" t="s">
+        <v>44</v>
+      </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+      <c r="E491">
+        <v>1</v>
+      </c>
+      <c r="F491">
+        <v>1000</v>
+      </c>
+      <c r="G491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A492">
+        <v>2000016</v>
+      </c>
+      <c r="B492">
+        <v>3000004</v>
+      </c>
+      <c r="C492" t="s">
+        <v>45</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+      <c r="E492">
+        <v>1</v>
+      </c>
+      <c r="F492">
+        <v>1000</v>
+      </c>
+      <c r="G492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A493">
+        <v>2000016</v>
+      </c>
+      <c r="B493">
+        <v>3000005</v>
+      </c>
+      <c r="C493" t="s">
+        <v>46</v>
+      </c>
+      <c r="D493">
+        <v>1</v>
+      </c>
+      <c r="E493">
+        <v>1</v>
+      </c>
+      <c r="F493">
+        <v>1000</v>
+      </c>
+      <c r="G493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A494">
+        <v>2000016</v>
+      </c>
+      <c r="B494">
+        <v>3000006</v>
+      </c>
+      <c r="C494" t="s">
+        <v>47</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+      <c r="E494">
+        <v>1</v>
+      </c>
+      <c r="F494">
+        <v>1000</v>
+      </c>
+      <c r="G494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A495">
+        <v>2000017</v>
+      </c>
+      <c r="B495">
+        <v>3000002</v>
+      </c>
+      <c r="C495" t="s">
+        <v>43</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+      <c r="E495">
+        <v>1</v>
+      </c>
+      <c r="F495">
+        <v>1000</v>
+      </c>
+      <c r="G495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A496">
+        <v>2000017</v>
+      </c>
+      <c r="B496">
+        <v>3000008</v>
+      </c>
+      <c r="C496" t="s">
+        <v>49</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+      <c r="E496">
+        <v>1</v>
+      </c>
+      <c r="F496">
+        <v>1000</v>
+      </c>
+      <c r="G496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A497">
+        <v>2000017</v>
+      </c>
+      <c r="B497">
+        <v>3000007</v>
+      </c>
+      <c r="C497" t="s">
+        <v>48</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+      <c r="E497">
+        <v>1</v>
+      </c>
+      <c r="F497">
+        <v>1000</v>
+      </c>
+      <c r="G497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A498">
+        <v>2000018</v>
+      </c>
+      <c r="B498">
+        <v>3000014</v>
+      </c>
+      <c r="C498" t="s">
+        <v>55</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+      <c r="E498">
+        <v>1</v>
+      </c>
+      <c r="F498">
+        <v>1000</v>
+      </c>
+      <c r="G498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A499">
+        <v>2000018</v>
+      </c>
+      <c r="B499">
+        <v>3000011</v>
+      </c>
+      <c r="C499" t="s">
+        <v>52</v>
+      </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
+      <c r="E499">
+        <v>1</v>
+      </c>
+      <c r="F499">
+        <v>1000</v>
+      </c>
+      <c r="G499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A500">
+        <v>2000018</v>
+      </c>
+      <c r="B500">
+        <v>3000013</v>
+      </c>
+      <c r="C500" t="s">
+        <v>54</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+      <c r="E500">
+        <v>1</v>
+      </c>
+      <c r="F500">
+        <v>1000</v>
+      </c>
+      <c r="G500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A501">
+        <v>2000019</v>
+      </c>
+      <c r="B501">
+        <v>3000009</v>
+      </c>
+      <c r="C501" t="s">
+        <v>50</v>
+      </c>
+      <c r="D501">
+        <v>1</v>
+      </c>
+      <c r="E501">
+        <v>1</v>
+      </c>
+      <c r="F501">
+        <v>1000</v>
+      </c>
+      <c r="G501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A502">
+        <v>2000019</v>
+      </c>
+      <c r="B502">
+        <v>3000006</v>
+      </c>
+      <c r="C502" t="s">
+        <v>47</v>
+      </c>
+      <c r="D502">
+        <v>1</v>
+      </c>
+      <c r="E502">
+        <v>1</v>
+      </c>
+      <c r="F502">
+        <v>1000</v>
+      </c>
+      <c r="G502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A503">
+        <v>2000019</v>
+      </c>
+      <c r="B503">
+        <v>3000012</v>
+      </c>
+      <c r="C503" t="s">
+        <v>53</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+      <c r="E503">
+        <v>1</v>
+      </c>
+      <c r="F503">
+        <v>1000</v>
+      </c>
+      <c r="G503">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/other/配置表/d-掉落器内容配置表.xlsx
+++ b/other/配置表/d-掉落器内容配置表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1129\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5878F928-138F-4816-93C0-8FB6736ED74C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D7382D-46D5-4BBA-A295-FF8A6BD98136}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -473,7 +473,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -784,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q503"/>
+  <dimension ref="A1:Q504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="A474" sqref="A474"/>
+    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
+      <selection activeCell="A475" sqref="A475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11794,13 +11804,13 @@
     </row>
     <row r="475" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A475">
-        <v>2000001</v>
+        <v>300008</v>
       </c>
       <c r="B475">
-        <v>3000001</v>
+        <v>214105</v>
       </c>
       <c r="C475" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D475">
         <v>1</v>
@@ -11814,17 +11824,16 @@
       <c r="G475">
         <v>1</v>
       </c>
-      <c r="Q475" s="2"/>
     </row>
     <row r="476" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A476">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="B476">
-        <v>3000002</v>
+        <v>3000001</v>
       </c>
       <c r="C476" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D476">
         <v>1</v>
@@ -11842,13 +11851,13 @@
     </row>
     <row r="477" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A477">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="B477">
-        <v>3000003</v>
+        <v>3000002</v>
       </c>
       <c r="C477" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D477">
         <v>1</v>
@@ -11866,13 +11875,13 @@
     </row>
     <row r="478" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A478">
-        <v>2000004</v>
+        <v>2000003</v>
       </c>
       <c r="B478">
-        <v>3000004</v>
+        <v>3000003</v>
       </c>
       <c r="C478" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D478">
         <v>1</v>
@@ -11890,13 +11899,13 @@
     </row>
     <row r="479" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A479">
-        <v>2000005</v>
+        <v>2000004</v>
       </c>
       <c r="B479">
-        <v>3000005</v>
+        <v>3000004</v>
       </c>
       <c r="C479" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D479">
         <v>1</v>
@@ -11914,13 +11923,13 @@
     </row>
     <row r="480" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A480">
-        <v>2000006</v>
+        <v>2000005</v>
       </c>
       <c r="B480">
-        <v>3000006</v>
+        <v>3000005</v>
       </c>
       <c r="C480" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D480">
         <v>1</v>
@@ -11938,13 +11947,13 @@
     </row>
     <row r="481" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A481">
-        <v>2000007</v>
+        <v>2000006</v>
       </c>
       <c r="B481">
-        <v>3000007</v>
+        <v>3000006</v>
       </c>
       <c r="C481" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D481">
         <v>1</v>
@@ -11962,13 +11971,13 @@
     </row>
     <row r="482" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A482">
-        <v>2000008</v>
+        <v>2000007</v>
       </c>
       <c r="B482">
-        <v>3000008</v>
+        <v>3000007</v>
       </c>
       <c r="C482" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D482">
         <v>1</v>
@@ -11986,13 +11995,13 @@
     </row>
     <row r="483" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A483">
-        <v>2000009</v>
+        <v>2000008</v>
       </c>
       <c r="B483">
-        <v>3000009</v>
+        <v>3000008</v>
       </c>
       <c r="C483" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D483">
         <v>1</v>
@@ -12010,13 +12019,13 @@
     </row>
     <row r="484" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A484">
-        <v>2000010</v>
+        <v>2000009</v>
       </c>
       <c r="B484">
-        <v>3000010</v>
+        <v>3000009</v>
       </c>
       <c r="C484" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D484">
         <v>1</v>
@@ -12034,13 +12043,13 @@
     </row>
     <row r="485" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A485">
-        <v>2000011</v>
+        <v>2000010</v>
       </c>
       <c r="B485">
-        <v>3000011</v>
+        <v>3000010</v>
       </c>
       <c r="C485" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D485">
         <v>1</v>
@@ -12058,13 +12067,13 @@
     </row>
     <row r="486" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A486">
-        <v>2000012</v>
+        <v>2000011</v>
       </c>
       <c r="B486">
-        <v>3000012</v>
+        <v>3000011</v>
       </c>
       <c r="C486" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D486">
         <v>1</v>
@@ -12082,13 +12091,13 @@
     </row>
     <row r="487" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A487">
-        <v>2000013</v>
+        <v>2000012</v>
       </c>
       <c r="B487">
-        <v>3000013</v>
+        <v>3000012</v>
       </c>
       <c r="C487" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D487">
         <v>1</v>
@@ -12106,13 +12115,13 @@
     </row>
     <row r="488" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A488">
-        <v>2000014</v>
+        <v>2000013</v>
       </c>
       <c r="B488">
-        <v>3000014</v>
+        <v>3000013</v>
       </c>
       <c r="C488" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D488">
         <v>1</v>
@@ -12130,13 +12139,13 @@
     </row>
     <row r="489" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A489">
-        <v>2000015</v>
+        <v>2000014</v>
       </c>
       <c r="B489">
-        <v>3000001</v>
+        <v>3000014</v>
       </c>
       <c r="C489" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D489">
         <v>1</v>
@@ -12145,21 +12154,22 @@
         <v>1</v>
       </c>
       <c r="F489">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G489">
         <v>1</v>
       </c>
+      <c r="Q489" s="2"/>
     </row>
     <row r="490" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A490">
         <v>2000015</v>
       </c>
       <c r="B490">
-        <v>3000012</v>
+        <v>3000001</v>
       </c>
       <c r="C490" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D490">
         <v>1</v>
@@ -12179,10 +12189,10 @@
         <v>2000015</v>
       </c>
       <c r="B491">
-        <v>3000003</v>
+        <v>3000012</v>
       </c>
       <c r="C491" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D491">
         <v>1</v>
@@ -12199,13 +12209,13 @@
     </row>
     <row r="492" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A492">
-        <v>2000016</v>
+        <v>2000015</v>
       </c>
       <c r="B492">
-        <v>3000004</v>
+        <v>3000003</v>
       </c>
       <c r="C492" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D492">
         <v>1</v>
@@ -12225,10 +12235,10 @@
         <v>2000016</v>
       </c>
       <c r="B493">
-        <v>3000005</v>
+        <v>3000004</v>
       </c>
       <c r="C493" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D493">
         <v>1</v>
@@ -12248,10 +12258,10 @@
         <v>2000016</v>
       </c>
       <c r="B494">
-        <v>3000006</v>
+        <v>3000005</v>
       </c>
       <c r="C494" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D494">
         <v>1</v>
@@ -12268,13 +12278,13 @@
     </row>
     <row r="495" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A495">
-        <v>2000017</v>
+        <v>2000016</v>
       </c>
       <c r="B495">
-        <v>3000002</v>
+        <v>3000006</v>
       </c>
       <c r="C495" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D495">
         <v>1</v>
@@ -12294,10 +12304,10 @@
         <v>2000017</v>
       </c>
       <c r="B496">
-        <v>3000008</v>
+        <v>3000002</v>
       </c>
       <c r="C496" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D496">
         <v>1</v>
@@ -12317,10 +12327,10 @@
         <v>2000017</v>
       </c>
       <c r="B497">
-        <v>3000007</v>
+        <v>3000008</v>
       </c>
       <c r="C497" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D497">
         <v>1</v>
@@ -12337,13 +12347,13 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A498">
-        <v>2000018</v>
+        <v>2000017</v>
       </c>
       <c r="B498">
-        <v>3000014</v>
+        <v>3000007</v>
       </c>
       <c r="C498" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D498">
         <v>1</v>
@@ -12363,10 +12373,10 @@
         <v>2000018</v>
       </c>
       <c r="B499">
-        <v>3000011</v>
+        <v>3000014</v>
       </c>
       <c r="C499" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D499">
         <v>1</v>
@@ -12386,10 +12396,10 @@
         <v>2000018</v>
       </c>
       <c r="B500">
-        <v>3000013</v>
+        <v>3000011</v>
       </c>
       <c r="C500" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D500">
         <v>1</v>
@@ -12406,13 +12416,13 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A501">
-        <v>2000019</v>
+        <v>2000018</v>
       </c>
       <c r="B501">
-        <v>3000009</v>
+        <v>3000013</v>
       </c>
       <c r="C501" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D501">
         <v>1</v>
@@ -12432,10 +12442,10 @@
         <v>2000019</v>
       </c>
       <c r="B502">
-        <v>3000006</v>
+        <v>3000009</v>
       </c>
       <c r="C502" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D502">
         <v>1</v>
@@ -12455,26 +12465,55 @@
         <v>2000019</v>
       </c>
       <c r="B503">
+        <v>3000006</v>
+      </c>
+      <c r="C503" t="s">
+        <v>47</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+      <c r="E503">
+        <v>1</v>
+      </c>
+      <c r="F503">
+        <v>1000</v>
+      </c>
+      <c r="G503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A504">
+        <v>2000019</v>
+      </c>
+      <c r="B504">
         <v>3000012</v>
       </c>
-      <c r="C503" t="s">
+      <c r="C504" t="s">
         <v>53</v>
       </c>
-      <c r="D503">
-        <v>1</v>
-      </c>
-      <c r="E503">
-        <v>1</v>
-      </c>
-      <c r="F503">
-        <v>1000</v>
-      </c>
-      <c r="G503">
+      <c r="D504">
+        <v>1</v>
+      </c>
+      <c r="E504">
+        <v>1</v>
+      </c>
+      <c r="F504">
+        <v>1000</v>
+      </c>
+      <c r="G504">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="B475">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B475">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/other/配置表/d-掉落器内容配置表.xlsx
+++ b/other/配置表/d-掉落器内容配置表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1129\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D7382D-46D5-4BBA-A295-FF8A6BD98136}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9DD7DF-B80B-4995-8FD1-751BB051BB43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
-      <selection activeCell="A475" sqref="A475"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/other/配置表/d-掉落器内容配置表.xlsx
+++ b/other/配置表/d-掉落器内容配置表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9DD7DF-B80B-4995-8FD1-751BB051BB43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01BE933-33ED-4655-BCD8-3A5EB7292EDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H239"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11827,13 +11827,13 @@
     </row>
     <row r="476" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A476">
-        <v>2000001</v>
+        <v>300009</v>
       </c>
       <c r="B476">
-        <v>3000001</v>
+        <v>243025</v>
       </c>
       <c r="C476" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D476">
         <v>1</v>
@@ -11847,17 +11847,16 @@
       <c r="G476">
         <v>1</v>
       </c>
-      <c r="Q476" s="2"/>
     </row>
     <row r="477" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A477">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="B477">
-        <v>3000002</v>
+        <v>3000001</v>
       </c>
       <c r="C477" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D477">
         <v>1</v>
@@ -11875,13 +11874,13 @@
     </row>
     <row r="478" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A478">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="B478">
-        <v>3000003</v>
+        <v>3000002</v>
       </c>
       <c r="C478" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D478">
         <v>1</v>
@@ -11899,13 +11898,13 @@
     </row>
     <row r="479" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A479">
-        <v>2000004</v>
+        <v>2000003</v>
       </c>
       <c r="B479">
-        <v>3000004</v>
+        <v>3000003</v>
       </c>
       <c r="C479" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D479">
         <v>1</v>
@@ -11923,13 +11922,13 @@
     </row>
     <row r="480" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A480">
-        <v>2000005</v>
+        <v>2000004</v>
       </c>
       <c r="B480">
-        <v>3000005</v>
+        <v>3000004</v>
       </c>
       <c r="C480" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D480">
         <v>1</v>
@@ -11947,13 +11946,13 @@
     </row>
     <row r="481" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A481">
-        <v>2000006</v>
+        <v>2000005</v>
       </c>
       <c r="B481">
-        <v>3000006</v>
+        <v>3000005</v>
       </c>
       <c r="C481" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D481">
         <v>1</v>
@@ -11971,13 +11970,13 @@
     </row>
     <row r="482" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A482">
-        <v>2000007</v>
+        <v>2000006</v>
       </c>
       <c r="B482">
-        <v>3000007</v>
+        <v>3000006</v>
       </c>
       <c r="C482" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D482">
         <v>1</v>
@@ -11995,13 +11994,13 @@
     </row>
     <row r="483" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A483">
-        <v>2000008</v>
+        <v>2000007</v>
       </c>
       <c r="B483">
-        <v>3000008</v>
+        <v>3000007</v>
       </c>
       <c r="C483" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D483">
         <v>1</v>
@@ -12019,13 +12018,13 @@
     </row>
     <row r="484" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A484">
-        <v>2000009</v>
+        <v>2000008</v>
       </c>
       <c r="B484">
-        <v>3000009</v>
+        <v>3000008</v>
       </c>
       <c r="C484" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D484">
         <v>1</v>
@@ -12043,13 +12042,13 @@
     </row>
     <row r="485" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A485">
-        <v>2000010</v>
+        <v>2000009</v>
       </c>
       <c r="B485">
-        <v>3000010</v>
+        <v>3000009</v>
       </c>
       <c r="C485" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D485">
         <v>1</v>
@@ -12067,13 +12066,13 @@
     </row>
     <row r="486" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A486">
-        <v>2000011</v>
+        <v>2000010</v>
       </c>
       <c r="B486">
-        <v>3000011</v>
+        <v>3000010</v>
       </c>
       <c r="C486" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D486">
         <v>1</v>
@@ -12091,13 +12090,13 @@
     </row>
     <row r="487" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A487">
-        <v>2000012</v>
+        <v>2000011</v>
       </c>
       <c r="B487">
-        <v>3000012</v>
+        <v>3000011</v>
       </c>
       <c r="C487" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D487">
         <v>1</v>
@@ -12115,13 +12114,13 @@
     </row>
     <row r="488" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A488">
-        <v>2000013</v>
+        <v>2000012</v>
       </c>
       <c r="B488">
-        <v>3000013</v>
+        <v>3000012</v>
       </c>
       <c r="C488" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D488">
         <v>1</v>
@@ -12139,13 +12138,13 @@
     </row>
     <row r="489" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A489">
-        <v>2000014</v>
+        <v>2000013</v>
       </c>
       <c r="B489">
-        <v>3000014</v>
+        <v>3000013</v>
       </c>
       <c r="C489" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D489">
         <v>1</v>
@@ -12163,13 +12162,13 @@
     </row>
     <row r="490" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A490">
-        <v>2000015</v>
+        <v>2000014</v>
       </c>
       <c r="B490">
-        <v>3000001</v>
+        <v>3000014</v>
       </c>
       <c r="C490" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D490">
         <v>1</v>
@@ -12178,21 +12177,22 @@
         <v>1</v>
       </c>
       <c r="F490">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G490">
         <v>1</v>
       </c>
+      <c r="Q490" s="2"/>
     </row>
     <row r="491" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A491">
         <v>2000015</v>
       </c>
       <c r="B491">
-        <v>3000012</v>
+        <v>3000001</v>
       </c>
       <c r="C491" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D491">
         <v>1</v>
@@ -12212,10 +12212,10 @@
         <v>2000015</v>
       </c>
       <c r="B492">
-        <v>3000003</v>
+        <v>3000012</v>
       </c>
       <c r="C492" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D492">
         <v>1</v>
@@ -12232,13 +12232,13 @@
     </row>
     <row r="493" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A493">
-        <v>2000016</v>
+        <v>2000015</v>
       </c>
       <c r="B493">
-        <v>3000004</v>
+        <v>3000003</v>
       </c>
       <c r="C493" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D493">
         <v>1</v>
@@ -12258,10 +12258,10 @@
         <v>2000016</v>
       </c>
       <c r="B494">
-        <v>3000005</v>
+        <v>3000004</v>
       </c>
       <c r="C494" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D494">
         <v>1</v>
@@ -12281,10 +12281,10 @@
         <v>2000016</v>
       </c>
       <c r="B495">
-        <v>3000006</v>
+        <v>3000005</v>
       </c>
       <c r="C495" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D495">
         <v>1</v>
@@ -12301,13 +12301,13 @@
     </row>
     <row r="496" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A496">
-        <v>2000017</v>
+        <v>2000016</v>
       </c>
       <c r="B496">
-        <v>3000002</v>
+        <v>3000006</v>
       </c>
       <c r="C496" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D496">
         <v>1</v>
@@ -12327,10 +12327,10 @@
         <v>2000017</v>
       </c>
       <c r="B497">
-        <v>3000008</v>
+        <v>3000002</v>
       </c>
       <c r="C497" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D497">
         <v>1</v>
@@ -12508,10 +12508,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B475">
+  <conditionalFormatting sqref="B475:B476">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B475">
+  <conditionalFormatting sqref="B475:B476">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
